--- a/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.649430102427317</v>
+        <v>1.649430102427516</v>
       </c>
       <c r="C2">
-        <v>1.398494487364985</v>
+        <v>1.398494487365042</v>
       </c>
       <c r="D2">
-        <v>0.1963412574345256</v>
+        <v>0.1963412574347814</v>
       </c>
       <c r="E2">
-        <v>0.0323011512036615</v>
+        <v>0.03230115120367394</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.604043306797223</v>
+        <v>9.604043306797251</v>
       </c>
       <c r="I2">
-        <v>0.00463779604188419</v>
+        <v>0.004637796041909059</v>
       </c>
       <c r="J2">
-        <v>0.6888505567608547</v>
+        <v>0.6888505567609187</v>
       </c>
       <c r="K2">
-        <v>0.2316897957986725</v>
+        <v>0.2316897957987294</v>
       </c>
       <c r="L2">
-        <v>0.6148360843909657</v>
+        <v>0.6148360843908804</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.400658845933407</v>
+        <v>1.400658845933748</v>
       </c>
       <c r="C3">
-        <v>1.20230445701975</v>
+        <v>1.202304457020205</v>
       </c>
       <c r="D3">
-        <v>0.1702717499295119</v>
+        <v>0.1702717499293271</v>
       </c>
       <c r="E3">
-        <v>0.0294441851714744</v>
+        <v>0.02944418517144776</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.420574505830189</v>
+        <v>8.420574505830331</v>
       </c>
       <c r="I3">
-        <v>0.004333423992409546</v>
+        <v>0.004333423992337604</v>
       </c>
       <c r="J3">
-        <v>0.5885266658662829</v>
+        <v>0.5885266658663397</v>
       </c>
       <c r="K3">
-        <v>0.2020577275165962</v>
+        <v>0.2020577275166247</v>
       </c>
       <c r="L3">
-        <v>0.5295237692995869</v>
+        <v>0.5295237692995798</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.255369835246427</v>
+        <v>1.255369835246654</v>
       </c>
       <c r="C4">
-        <v>1.085527860309753</v>
+        <v>1.085527860310265</v>
       </c>
       <c r="D4">
-        <v>0.1547863624164023</v>
+        <v>0.1547863624161749</v>
       </c>
       <c r="E4">
-        <v>0.02774905295073893</v>
+        <v>0.02774905295081176</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.712018302513997</v>
+        <v>7.712018302514025</v>
       </c>
       <c r="I4">
-        <v>0.004153028610923926</v>
+        <v>0.004153028610839771</v>
       </c>
       <c r="J4">
-        <v>0.5294270176332034</v>
+        <v>0.529427017633175</v>
       </c>
       <c r="K4">
-        <v>0.184428622990076</v>
+        <v>0.1844286229900618</v>
       </c>
       <c r="L4">
-        <v>0.4792161943100908</v>
+        <v>0.4792161943101121</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.197758686988607</v>
+        <v>1.197758686988323</v>
       </c>
       <c r="C5">
-        <v>1.03871838021746</v>
+        <v>1.038718380216608</v>
       </c>
       <c r="D5">
-        <v>0.1485874059287511</v>
+        <v>0.1485874059288506</v>
       </c>
       <c r="E5">
-        <v>0.02707116788006658</v>
+        <v>0.02707116788011454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.427026515506697</v>
+        <v>7.427026515506668</v>
       </c>
       <c r="I5">
-        <v>0.004080742199813026</v>
+        <v>0.004080742199898069</v>
       </c>
       <c r="J5">
-        <v>0.5058761438439916</v>
+        <v>0.5058761438439987</v>
       </c>
       <c r="K5">
-        <v>0.1773654111507277</v>
+        <v>0.1773654111507774</v>
       </c>
       <c r="L5">
-        <v>0.4591603020499875</v>
+        <v>0.4591603020500017</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.188281299723627</v>
+        <v>1.188281299723883</v>
       </c>
       <c r="C6">
         <v>1.030988714164494</v>
       </c>
       <c r="D6">
-        <v>0.1475642804259536</v>
+        <v>0.1475642804259394</v>
       </c>
       <c r="E6">
-        <v>0.02695933194089939</v>
+        <v>0.02695933194097044</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.379908917412621</v>
+        <v>7.379908917412564</v>
       </c>
       <c r="I6">
-        <v>0.004068802460169829</v>
+        <v>0.004068802460230669</v>
       </c>
       <c r="J6">
-        <v>0.5019951592933936</v>
+        <v>0.5019951592933651</v>
       </c>
       <c r="K6">
-        <v>0.176199295082192</v>
+        <v>0.1761992950822275</v>
       </c>
       <c r="L6">
-        <v>0.4558548545994725</v>
+        <v>0.4558548545994512</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.25458675353309</v>
+        <v>1.254586753533204</v>
       </c>
       <c r="C7">
-        <v>1.084893603529281</v>
+        <v>1.08489360352911</v>
       </c>
       <c r="D7">
-        <v>0.1547023338908105</v>
+        <v>0.1547023338905547</v>
       </c>
       <c r="E7">
-        <v>0.02773986094697278</v>
+        <v>0.02773986094689995</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.708160600341955</v>
+        <v>7.708160600342012</v>
       </c>
       <c r="I7">
-        <v>0.004152049257406309</v>
+        <v>0.004152049257435175</v>
       </c>
       <c r="J7">
         <v>0.5291073624830531</v>
       </c>
       <c r="K7">
-        <v>0.1843329031066574</v>
+        <v>0.1843329031067285</v>
       </c>
       <c r="L7">
-        <v>0.4789440062928918</v>
+        <v>0.4789440062928847</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.561924329436039</v>
+        <v>1.561924329436096</v>
       </c>
       <c r="C8">
-        <v>1.32998719577472</v>
+        <v>1.329987195774777</v>
       </c>
       <c r="D8">
-        <v>0.1872315808476941</v>
+        <v>0.1872315808482057</v>
       </c>
       <c r="E8">
-        <v>0.03130255141640781</v>
+        <v>0.0313025514164984</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.191710417161715</v>
+        <v>9.191710417161659</v>
       </c>
       <c r="I8">
-        <v>0.004531236098363811</v>
+        <v>0.004531236098442637</v>
       </c>
       <c r="J8">
-        <v>0.6536779612802732</v>
+        <v>0.6536779612802945</v>
       </c>
       <c r="K8">
-        <v>0.2213416077711017</v>
+        <v>0.2213416077710875</v>
       </c>
       <c r="L8">
-        <v>0.5849400965923977</v>
+        <v>0.5849400965924119</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.238993731009145</v>
+        <v>2.2389937310096</v>
       </c>
       <c r="C9">
-        <v>1.847872521822126</v>
+        <v>1.847872521821614</v>
       </c>
       <c r="D9">
-        <v>0.2562150369197127</v>
+        <v>0.2562150369199969</v>
       </c>
       <c r="E9">
-        <v>0.03886214865400461</v>
+        <v>0.03886214865408277</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.28745289406439</v>
+        <v>12.28745289406464</v>
       </c>
       <c r="I9">
-        <v>0.005348829341036421</v>
+        <v>0.005348829341010886</v>
       </c>
       <c r="J9">
-        <v>0.9229887595754462</v>
+        <v>0.922988759575361</v>
       </c>
       <c r="K9">
-        <v>0.2995441613816396</v>
+        <v>0.2995441613815757</v>
       </c>
       <c r="L9">
-        <v>0.8134108117912433</v>
+        <v>0.8134108117912717</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.808354004586249</v>
+        <v>2.808354004585908</v>
       </c>
       <c r="C10">
-        <v>2.26496495702321</v>
+        <v>2.264964957024347</v>
       </c>
       <c r="D10">
-        <v>0.311886336667726</v>
+        <v>0.3118863366676976</v>
       </c>
       <c r="E10">
-        <v>0.04494474938805126</v>
+        <v>0.04494474938804238</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.74930048839863</v>
+        <v>14.74930048839869</v>
       </c>
       <c r="I10">
-        <v>0.006035010587695178</v>
+        <v>0.006035010587684519</v>
       </c>
       <c r="J10">
-        <v>1.145159643244199</v>
+        <v>1.145159643244241</v>
       </c>
       <c r="K10">
         <v>0.3624026887192358</v>
       </c>
       <c r="L10">
-        <v>1.001043989732835</v>
+        <v>1.001043989732757</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.091073688122265</v>
+        <v>3.091073688122378</v>
       </c>
       <c r="C11">
-        <v>2.466835265692282</v>
+        <v>2.466835265690804</v>
       </c>
       <c r="D11">
-        <v>0.3388411786184804</v>
+        <v>0.3388411786181962</v>
       </c>
       <c r="E11">
-        <v>0.0478796973287352</v>
+        <v>0.04787969732891639</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15.93187320341349</v>
+        <v>15.93187320341337</v>
       </c>
       <c r="I11">
-        <v>0.006378463533787349</v>
+        <v>0.006378463533786682</v>
       </c>
       <c r="J11">
-        <v>1.254252828660697</v>
+        <v>1.254252828660611</v>
       </c>
       <c r="K11">
-        <v>0.3927603113457607</v>
+        <v>0.3927603113457039</v>
       </c>
       <c r="L11">
-        <v>1.092872781954128</v>
+        <v>1.092872781954171</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.202455875002784</v>
+        <v>3.202455875002045</v>
       </c>
       <c r="C12">
-        <v>2.545489979168281</v>
+        <v>2.545489979168224</v>
       </c>
       <c r="D12">
-        <v>0.3493432856064516</v>
+        <v>0.3493432856072332</v>
       </c>
       <c r="E12">
-        <v>0.04902108626537682</v>
+        <v>0.04902108626534485</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.39112170953871</v>
+        <v>16.39112170953865</v>
       </c>
       <c r="I12">
-        <v>0.006514502940505817</v>
+        <v>0.006514502940478506</v>
       </c>
       <c r="J12">
-        <v>1.297026676160854</v>
+        <v>1.297026676160911</v>
       </c>
       <c r="K12">
-        <v>0.4045748185665019</v>
+        <v>0.4045748185665374</v>
       </c>
       <c r="L12">
-        <v>1.12882078544672</v>
+        <v>1.128820785446706</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.17825814497013</v>
+        <v>3.178258144969732</v>
       </c>
       <c r="C13">
-        <v>2.528443131775418</v>
+        <v>2.528443131775759</v>
       </c>
       <c r="D13">
-        <v>0.3470672107432193</v>
+        <v>0.3470672107435036</v>
       </c>
       <c r="E13">
-        <v>0.0487738243182072</v>
+        <v>0.04877382431827826</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.29166018533402</v>
+        <v>16.29166018533425</v>
       </c>
       <c r="I13">
-        <v>0.006484909828761154</v>
+        <v>0.006484909828719854</v>
       </c>
       <c r="J13">
-        <v>1.287743656593847</v>
+        <v>1.287743656593832</v>
       </c>
       <c r="K13">
         <v>0.4020149472951218</v>
       </c>
       <c r="L13">
-        <v>1.121021892116566</v>
+        <v>1.121021892116453</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.100144389543004</v>
+        <v>3.100144389542947</v>
       </c>
       <c r="C14">
-        <v>2.473258798758877</v>
+        <v>2.473258798757911</v>
       </c>
       <c r="D14">
-        <v>0.339698877653845</v>
+        <v>0.3396988776527223</v>
       </c>
       <c r="E14">
-        <v>0.0479729601397203</v>
+        <v>0.0479729601395924</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15.96941051153181</v>
+        <v>15.96941051153158</v>
       </c>
       <c r="I14">
-        <v>0.006389525583826883</v>
+        <v>0.006389525583850864</v>
       </c>
       <c r="J14">
-        <v>1.257740468712498</v>
+        <v>1.257740468712427</v>
       </c>
       <c r="K14">
-        <v>0.3937254735540563</v>
+        <v>0.3937254735540776</v>
       </c>
       <c r="L14">
-        <v>1.095805071478225</v>
+        <v>1.09580507147821</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.052891804432647</v>
+        <v>3.05289180443242</v>
       </c>
       <c r="C15">
-        <v>2.439760718012565</v>
+        <v>2.439760718013531</v>
       </c>
       <c r="D15">
-        <v>0.335226038875561</v>
+        <v>0.33522603887576</v>
       </c>
       <c r="E15">
-        <v>0.04748651226164213</v>
+        <v>0.04748651226161016</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.77359513872892</v>
+        <v>15.77359513872869</v>
       </c>
       <c r="I15">
-        <v>0.006331930585926182</v>
+        <v>0.00633193058595638</v>
       </c>
       <c r="J15">
-        <v>1.239563745035326</v>
+        <v>1.239563745035269</v>
       </c>
       <c r="K15">
-        <v>0.3886916729110084</v>
+        <v>0.3886916729110226</v>
       </c>
       <c r="L15">
-        <v>1.080520356840104</v>
+        <v>1.080520356840047</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.790427230699891</v>
+        <v>2.790427230699549</v>
       </c>
       <c r="C16">
-        <v>2.252053484927899</v>
+        <v>2.252053484926932</v>
       </c>
       <c r="D16">
-        <v>0.3101623904925646</v>
+        <v>0.3101623904927635</v>
       </c>
       <c r="E16">
-        <v>0.04475678899551028</v>
+        <v>0.0447567889955014</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.67347074972412</v>
+        <v>14.67347074972389</v>
       </c>
       <c r="I16">
-        <v>0.006013311704712754</v>
+        <v>0.006013311704720969</v>
       </c>
       <c r="J16">
-        <v>1.138216162806401</v>
+        <v>1.138216162806415</v>
       </c>
       <c r="K16">
-        <v>0.3604594191604278</v>
+        <v>0.3604594191603709</v>
       </c>
       <c r="L16">
-        <v>0.9951923918205168</v>
+        <v>0.9951923918205878</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.636062598096885</v>
+        <v>2.636062598096487</v>
       </c>
       <c r="C17">
-        <v>2.140303508831494</v>
+        <v>2.140303508831437</v>
       </c>
       <c r="D17">
-        <v>0.2952424257048563</v>
+        <v>0.2952424257042594</v>
       </c>
       <c r="E17">
-        <v>0.04312891794079121</v>
+        <v>0.04312891794075213</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.0161682483625</v>
+        <v>14.01616824836273</v>
       </c>
       <c r="I17">
-        <v>0.005826789174381286</v>
+        <v>0.005826789174426583</v>
       </c>
       <c r="J17">
-        <v>1.078293096248487</v>
+        <v>1.078293096248473</v>
       </c>
       <c r="K17">
-        <v>0.3436327425758421</v>
+        <v>0.3436327425758492</v>
       </c>
       <c r="L17">
-        <v>0.9446583788692635</v>
+        <v>0.9446583788692138</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.549441563193341</v>
+        <v>2.549441563193227</v>
       </c>
       <c r="C18">
-        <v>2.077135937303581</v>
+        <v>2.077135937303012</v>
       </c>
       <c r="D18">
-        <v>0.2868098520999212</v>
+        <v>0.286809852100177</v>
       </c>
       <c r="E18">
-        <v>0.04220799477348436</v>
+        <v>0.04220799477367621</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.64382804835503</v>
+        <v>13.64382804835554</v>
       </c>
       <c r="I18">
-        <v>0.005722343210756708</v>
+        <v>0.005722343210714076</v>
       </c>
       <c r="J18">
-        <v>1.044559898691659</v>
+        <v>1.044559898691674</v>
       </c>
       <c r="K18">
-        <v>0.3341156875420666</v>
+        <v>0.3341156875420381</v>
       </c>
       <c r="L18">
-        <v>0.9161841121407477</v>
+        <v>0.9161841121407335</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.520461152444227</v>
+        <v>2.520461152444625</v>
       </c>
       <c r="C19">
-        <v>2.055926511824168</v>
+        <v>2.055926511822861</v>
       </c>
       <c r="D19">
-        <v>0.2839787185001228</v>
+        <v>0.283978718500336</v>
       </c>
       <c r="E19">
-        <v>0.04189867360979704</v>
+        <v>0.04189867360972066</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.51867882499857</v>
+        <v>13.51867882499874</v>
       </c>
       <c r="I19">
-        <v>0.005687428589943533</v>
+        <v>0.005687428589934873</v>
       </c>
       <c r="J19">
-        <v>1.033256203286001</v>
+        <v>1.033256203286015</v>
       </c>
       <c r="K19">
-        <v>0.3309193391252734</v>
+        <v>0.3309193391252165</v>
       </c>
       <c r="L19">
-        <v>0.9066384058323678</v>
+        <v>0.9066384058323038</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.652265034255493</v>
+        <v>2.652265034255379</v>
       </c>
       <c r="C20">
-        <v>2.152081814730764</v>
+        <v>2.152081814730025</v>
       </c>
       <c r="D20">
-        <v>0.2968148717762773</v>
+        <v>0.2968148717764478</v>
       </c>
       <c r="E20">
-        <v>0.04330057762875761</v>
+        <v>0.04330057762860307</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.08553133147987</v>
+        <v>14.08553133148021</v>
       </c>
       <c r="I20">
-        <v>0.005846341872342675</v>
+        <v>0.005846341872392413</v>
       </c>
       <c r="J20">
-        <v>1.084594176464151</v>
+        <v>1.084594176464108</v>
       </c>
       <c r="K20">
-        <v>0.3454068674703663</v>
+        <v>0.345406867470281</v>
       </c>
       <c r="L20">
-        <v>0.9499750256817876</v>
+        <v>0.9499750256817947</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>3.1229624234727</v>
       </c>
       <c r="C21">
-        <v>2.489403418411939</v>
+        <v>2.489403418411257</v>
       </c>
       <c r="D21">
-        <v>0.3418545679521117</v>
+        <v>0.3418545679531206</v>
       </c>
       <c r="E21">
-        <v>0.04820732529912419</v>
+        <v>0.04820732529907445</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.06373020538626</v>
+        <v>16.06373020538643</v>
       </c>
       <c r="I21">
-        <v>0.006417365832609212</v>
+        <v>0.006417365832597222</v>
       </c>
       <c r="J21">
-        <v>1.266510546318827</v>
+        <v>1.266510546318855</v>
       </c>
       <c r="K21">
-        <v>0.3961510350435162</v>
+        <v>0.3961510350435873</v>
       </c>
       <c r="L21">
-        <v>1.10317771081727</v>
+        <v>1.103177710817292</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.456415217915378</v>
+        <v>3.456415217914753</v>
       </c>
       <c r="C22">
-        <v>2.723067999096429</v>
+        <v>2.723067999095917</v>
       </c>
       <c r="D22">
-        <v>0.3730506902165729</v>
+        <v>0.3730506902164876</v>
       </c>
       <c r="E22">
-        <v>0.05159289711825821</v>
+        <v>0.0515928971181765</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.42488365922048</v>
+        <v>17.42488365922065</v>
       </c>
       <c r="I22">
-        <v>0.006826483808262784</v>
+        <v>0.006826483808313411</v>
       </c>
       <c r="J22">
-        <v>1.394141301916747</v>
+        <v>1.394141301916832</v>
       </c>
       <c r="K22">
-        <v>0.4312174251677803</v>
+        <v>0.4312174251678016</v>
       </c>
       <c r="L22">
-        <v>1.21031715150594</v>
+        <v>1.210317151505954</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.275707971765883</v>
+        <v>3.275707971766508</v>
       </c>
       <c r="C23">
-        <v>2.596958383481081</v>
+        <v>2.596958383480569</v>
       </c>
       <c r="D23">
-        <v>0.3562150704694034</v>
+        <v>0.356215070470185</v>
       </c>
       <c r="E23">
-        <v>0.04976723955982365</v>
+        <v>0.04976723955968865</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.69118022989812</v>
+        <v>16.69118022989881</v>
       </c>
       <c r="I23">
-        <v>0.006604224181005147</v>
+        <v>0.006604224181019802</v>
       </c>
       <c r="J23">
-        <v>1.325096544410371</v>
+        <v>1.325096544410414</v>
       </c>
       <c r="K23">
-        <v>0.4123012984806138</v>
+        <v>0.4123012984806067</v>
       </c>
       <c r="L23">
-        <v>1.152393676495933</v>
+        <v>1.15239367649594</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.644933358386709</v>
+        <v>2.644933358387107</v>
       </c>
       <c r="C24">
-        <v>2.146753515229079</v>
+        <v>2.146753515229136</v>
       </c>
       <c r="D24">
-        <v>0.2961035212519931</v>
+        <v>0.2961035212518084</v>
       </c>
       <c r="E24">
-        <v>0.04322292410086348</v>
+        <v>0.04322292410098072</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.05415516288389</v>
+        <v>14.05415516288355</v>
       </c>
       <c r="I24">
-        <v>0.005837493517617753</v>
+        <v>0.00583749351773144</v>
       </c>
       <c r="J24">
-        <v>1.08174324570048</v>
+        <v>1.081743245700565</v>
       </c>
       <c r="K24">
-        <v>0.3446043018052052</v>
+        <v>0.3446043018051981</v>
       </c>
       <c r="L24">
         <v>0.9475695854679529</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.045464366466916</v>
+        <v>2.045464366466831</v>
       </c>
       <c r="C25">
-        <v>1.702520432004917</v>
+        <v>1.702520432005031</v>
       </c>
       <c r="D25">
-        <v>0.2368311908105483</v>
+        <v>0.2368311908113583</v>
       </c>
       <c r="E25">
-        <v>0.03673933549455732</v>
+        <v>0.03673933549451647</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.42327904834949</v>
+        <v>11.42327904834934</v>
       </c>
       <c r="I25">
-        <v>0.005116131709667071</v>
+        <v>0.005116131709715921</v>
       </c>
       <c r="J25">
         <v>0.84663438386076</v>
       </c>
       <c r="K25">
-        <v>0.2776060259283426</v>
+        <v>0.2776060259283213</v>
       </c>
       <c r="L25">
-        <v>0.7487427948102763</v>
+        <v>0.7487427948102408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.649430102427516</v>
+        <v>1.649430102427317</v>
       </c>
       <c r="C2">
-        <v>1.398494487365042</v>
+        <v>1.398494487364985</v>
       </c>
       <c r="D2">
-        <v>0.1963412574347814</v>
+        <v>0.1963412574345256</v>
       </c>
       <c r="E2">
-        <v>0.03230115120367394</v>
+        <v>0.0323011512036615</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.604043306797251</v>
+        <v>9.604043306797223</v>
       </c>
       <c r="I2">
-        <v>0.004637796041909059</v>
+        <v>0.00463779604188419</v>
       </c>
       <c r="J2">
-        <v>0.6888505567609187</v>
+        <v>0.6888505567608547</v>
       </c>
       <c r="K2">
-        <v>0.2316897957987294</v>
+        <v>0.2316897957986725</v>
       </c>
       <c r="L2">
-        <v>0.6148360843908804</v>
+        <v>0.6148360843909657</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.400658845933748</v>
+        <v>1.400658845933407</v>
       </c>
       <c r="C3">
-        <v>1.202304457020205</v>
+        <v>1.20230445701975</v>
       </c>
       <c r="D3">
-        <v>0.1702717499293271</v>
+        <v>0.1702717499295119</v>
       </c>
       <c r="E3">
-        <v>0.02944418517144776</v>
+        <v>0.0294441851714744</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.420574505830331</v>
+        <v>8.420574505830189</v>
       </c>
       <c r="I3">
-        <v>0.004333423992337604</v>
+        <v>0.004333423992409546</v>
       </c>
       <c r="J3">
-        <v>0.5885266658663397</v>
+        <v>0.5885266658662829</v>
       </c>
       <c r="K3">
-        <v>0.2020577275166247</v>
+        <v>0.2020577275165962</v>
       </c>
       <c r="L3">
-        <v>0.5295237692995798</v>
+        <v>0.5295237692995869</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.255369835246654</v>
+        <v>1.255369835246427</v>
       </c>
       <c r="C4">
-        <v>1.085527860310265</v>
+        <v>1.085527860309753</v>
       </c>
       <c r="D4">
-        <v>0.1547863624161749</v>
+        <v>0.1547863624164023</v>
       </c>
       <c r="E4">
-        <v>0.02774905295081176</v>
+        <v>0.02774905295073893</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.712018302514025</v>
+        <v>7.712018302513997</v>
       </c>
       <c r="I4">
-        <v>0.004153028610839771</v>
+        <v>0.004153028610923926</v>
       </c>
       <c r="J4">
-        <v>0.529427017633175</v>
+        <v>0.5294270176332034</v>
       </c>
       <c r="K4">
-        <v>0.1844286229900618</v>
+        <v>0.184428622990076</v>
       </c>
       <c r="L4">
-        <v>0.4792161943101121</v>
+        <v>0.4792161943100908</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.197758686988323</v>
+        <v>1.197758686988607</v>
       </c>
       <c r="C5">
-        <v>1.038718380216608</v>
+        <v>1.03871838021746</v>
       </c>
       <c r="D5">
-        <v>0.1485874059288506</v>
+        <v>0.1485874059287511</v>
       </c>
       <c r="E5">
-        <v>0.02707116788011454</v>
+        <v>0.02707116788006658</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.427026515506668</v>
+        <v>7.427026515506697</v>
       </c>
       <c r="I5">
-        <v>0.004080742199898069</v>
+        <v>0.004080742199813026</v>
       </c>
       <c r="J5">
-        <v>0.5058761438439987</v>
+        <v>0.5058761438439916</v>
       </c>
       <c r="K5">
-        <v>0.1773654111507774</v>
+        <v>0.1773654111507277</v>
       </c>
       <c r="L5">
-        <v>0.4591603020500017</v>
+        <v>0.4591603020499875</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.188281299723883</v>
+        <v>1.188281299723627</v>
       </c>
       <c r="C6">
         <v>1.030988714164494</v>
       </c>
       <c r="D6">
-        <v>0.1475642804259394</v>
+        <v>0.1475642804259536</v>
       </c>
       <c r="E6">
-        <v>0.02695933194097044</v>
+        <v>0.02695933194089939</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.379908917412564</v>
+        <v>7.379908917412621</v>
       </c>
       <c r="I6">
-        <v>0.004068802460230669</v>
+        <v>0.004068802460169829</v>
       </c>
       <c r="J6">
-        <v>0.5019951592933651</v>
+        <v>0.5019951592933936</v>
       </c>
       <c r="K6">
-        <v>0.1761992950822275</v>
+        <v>0.176199295082192</v>
       </c>
       <c r="L6">
-        <v>0.4558548545994512</v>
+        <v>0.4558548545994725</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.254586753533204</v>
+        <v>1.25458675353309</v>
       </c>
       <c r="C7">
-        <v>1.08489360352911</v>
+        <v>1.084893603529281</v>
       </c>
       <c r="D7">
-        <v>0.1547023338905547</v>
+        <v>0.1547023338908105</v>
       </c>
       <c r="E7">
-        <v>0.02773986094689995</v>
+        <v>0.02773986094697278</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.708160600342012</v>
+        <v>7.708160600341955</v>
       </c>
       <c r="I7">
-        <v>0.004152049257435175</v>
+        <v>0.004152049257406309</v>
       </c>
       <c r="J7">
         <v>0.5291073624830531</v>
       </c>
       <c r="K7">
-        <v>0.1843329031067285</v>
+        <v>0.1843329031066574</v>
       </c>
       <c r="L7">
-        <v>0.4789440062928847</v>
+        <v>0.4789440062928918</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.561924329436096</v>
+        <v>1.561924329436039</v>
       </c>
       <c r="C8">
-        <v>1.329987195774777</v>
+        <v>1.32998719577472</v>
       </c>
       <c r="D8">
-        <v>0.1872315808482057</v>
+        <v>0.1872315808476941</v>
       </c>
       <c r="E8">
-        <v>0.0313025514164984</v>
+        <v>0.03130255141640781</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.191710417161659</v>
+        <v>9.191710417161715</v>
       </c>
       <c r="I8">
-        <v>0.004531236098442637</v>
+        <v>0.004531236098363811</v>
       </c>
       <c r="J8">
-        <v>0.6536779612802945</v>
+        <v>0.6536779612802732</v>
       </c>
       <c r="K8">
-        <v>0.2213416077710875</v>
+        <v>0.2213416077711017</v>
       </c>
       <c r="L8">
-        <v>0.5849400965924119</v>
+        <v>0.5849400965923977</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.2389937310096</v>
+        <v>2.238993731009145</v>
       </c>
       <c r="C9">
-        <v>1.847872521821614</v>
+        <v>1.847872521822126</v>
       </c>
       <c r="D9">
-        <v>0.2562150369199969</v>
+        <v>0.2562150369197127</v>
       </c>
       <c r="E9">
-        <v>0.03886214865408277</v>
+        <v>0.03886214865400461</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.28745289406464</v>
+        <v>12.28745289406439</v>
       </c>
       <c r="I9">
-        <v>0.005348829341010886</v>
+        <v>0.005348829341036421</v>
       </c>
       <c r="J9">
-        <v>0.922988759575361</v>
+        <v>0.9229887595754462</v>
       </c>
       <c r="K9">
-        <v>0.2995441613815757</v>
+        <v>0.2995441613816396</v>
       </c>
       <c r="L9">
-        <v>0.8134108117912717</v>
+        <v>0.8134108117912433</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.808354004585908</v>
+        <v>2.808354004586249</v>
       </c>
       <c r="C10">
-        <v>2.264964957024347</v>
+        <v>2.26496495702321</v>
       </c>
       <c r="D10">
-        <v>0.3118863366676976</v>
+        <v>0.311886336667726</v>
       </c>
       <c r="E10">
-        <v>0.04494474938804238</v>
+        <v>0.04494474938805126</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14.74930048839869</v>
+        <v>14.74930048839863</v>
       </c>
       <c r="I10">
-        <v>0.006035010587684519</v>
+        <v>0.006035010587695178</v>
       </c>
       <c r="J10">
-        <v>1.145159643244241</v>
+        <v>1.145159643244199</v>
       </c>
       <c r="K10">
         <v>0.3624026887192358</v>
       </c>
       <c r="L10">
-        <v>1.001043989732757</v>
+        <v>1.001043989732835</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.091073688122378</v>
+        <v>3.091073688122265</v>
       </c>
       <c r="C11">
-        <v>2.466835265690804</v>
+        <v>2.466835265692282</v>
       </c>
       <c r="D11">
-        <v>0.3388411786181962</v>
+        <v>0.3388411786184804</v>
       </c>
       <c r="E11">
-        <v>0.04787969732891639</v>
+        <v>0.0478796973287352</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15.93187320341337</v>
+        <v>15.93187320341349</v>
       </c>
       <c r="I11">
-        <v>0.006378463533786682</v>
+        <v>0.006378463533787349</v>
       </c>
       <c r="J11">
-        <v>1.254252828660611</v>
+        <v>1.254252828660697</v>
       </c>
       <c r="K11">
-        <v>0.3927603113457039</v>
+        <v>0.3927603113457607</v>
       </c>
       <c r="L11">
-        <v>1.092872781954171</v>
+        <v>1.092872781954128</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.202455875002045</v>
+        <v>3.202455875002784</v>
       </c>
       <c r="C12">
-        <v>2.545489979168224</v>
+        <v>2.545489979168281</v>
       </c>
       <c r="D12">
-        <v>0.3493432856072332</v>
+        <v>0.3493432856064516</v>
       </c>
       <c r="E12">
-        <v>0.04902108626534485</v>
+        <v>0.04902108626537682</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.39112170953865</v>
+        <v>16.39112170953871</v>
       </c>
       <c r="I12">
-        <v>0.006514502940478506</v>
+        <v>0.006514502940505817</v>
       </c>
       <c r="J12">
-        <v>1.297026676160911</v>
+        <v>1.297026676160854</v>
       </c>
       <c r="K12">
-        <v>0.4045748185665374</v>
+        <v>0.4045748185665019</v>
       </c>
       <c r="L12">
-        <v>1.128820785446706</v>
+        <v>1.12882078544672</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.178258144969732</v>
+        <v>3.17825814497013</v>
       </c>
       <c r="C13">
-        <v>2.528443131775759</v>
+        <v>2.528443131775418</v>
       </c>
       <c r="D13">
-        <v>0.3470672107435036</v>
+        <v>0.3470672107432193</v>
       </c>
       <c r="E13">
-        <v>0.04877382431827826</v>
+        <v>0.0487738243182072</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.29166018533425</v>
+        <v>16.29166018533402</v>
       </c>
       <c r="I13">
-        <v>0.006484909828719854</v>
+        <v>0.006484909828761154</v>
       </c>
       <c r="J13">
-        <v>1.287743656593832</v>
+        <v>1.287743656593847</v>
       </c>
       <c r="K13">
         <v>0.4020149472951218</v>
       </c>
       <c r="L13">
-        <v>1.121021892116453</v>
+        <v>1.121021892116566</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.100144389542947</v>
+        <v>3.100144389543004</v>
       </c>
       <c r="C14">
-        <v>2.473258798757911</v>
+        <v>2.473258798758877</v>
       </c>
       <c r="D14">
-        <v>0.3396988776527223</v>
+        <v>0.339698877653845</v>
       </c>
       <c r="E14">
-        <v>0.0479729601395924</v>
+        <v>0.0479729601397203</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15.96941051153158</v>
+        <v>15.96941051153181</v>
       </c>
       <c r="I14">
-        <v>0.006389525583850864</v>
+        <v>0.006389525583826883</v>
       </c>
       <c r="J14">
-        <v>1.257740468712427</v>
+        <v>1.257740468712498</v>
       </c>
       <c r="K14">
-        <v>0.3937254735540776</v>
+        <v>0.3937254735540563</v>
       </c>
       <c r="L14">
-        <v>1.09580507147821</v>
+        <v>1.095805071478225</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.05289180443242</v>
+        <v>3.052891804432647</v>
       </c>
       <c r="C15">
-        <v>2.439760718013531</v>
+        <v>2.439760718012565</v>
       </c>
       <c r="D15">
-        <v>0.33522603887576</v>
+        <v>0.335226038875561</v>
       </c>
       <c r="E15">
-        <v>0.04748651226161016</v>
+        <v>0.04748651226164213</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15.77359513872869</v>
+        <v>15.77359513872892</v>
       </c>
       <c r="I15">
-        <v>0.00633193058595638</v>
+        <v>0.006331930585926182</v>
       </c>
       <c r="J15">
-        <v>1.239563745035269</v>
+        <v>1.239563745035326</v>
       </c>
       <c r="K15">
-        <v>0.3886916729110226</v>
+        <v>0.3886916729110084</v>
       </c>
       <c r="L15">
-        <v>1.080520356840047</v>
+        <v>1.080520356840104</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.790427230699549</v>
+        <v>2.790427230699891</v>
       </c>
       <c r="C16">
-        <v>2.252053484926932</v>
+        <v>2.252053484927899</v>
       </c>
       <c r="D16">
-        <v>0.3101623904927635</v>
+        <v>0.3101623904925646</v>
       </c>
       <c r="E16">
-        <v>0.0447567889955014</v>
+        <v>0.04475678899551028</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14.67347074972389</v>
+        <v>14.67347074972412</v>
       </c>
       <c r="I16">
-        <v>0.006013311704720969</v>
+        <v>0.006013311704712754</v>
       </c>
       <c r="J16">
-        <v>1.138216162806415</v>
+        <v>1.138216162806401</v>
       </c>
       <c r="K16">
-        <v>0.3604594191603709</v>
+        <v>0.3604594191604278</v>
       </c>
       <c r="L16">
-        <v>0.9951923918205878</v>
+        <v>0.9951923918205168</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.636062598096487</v>
+        <v>2.636062598096885</v>
       </c>
       <c r="C17">
-        <v>2.140303508831437</v>
+        <v>2.140303508831494</v>
       </c>
       <c r="D17">
-        <v>0.2952424257042594</v>
+        <v>0.2952424257048563</v>
       </c>
       <c r="E17">
-        <v>0.04312891794075213</v>
+        <v>0.04312891794079121</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.01616824836273</v>
+        <v>14.0161682483625</v>
       </c>
       <c r="I17">
-        <v>0.005826789174426583</v>
+        <v>0.005826789174381286</v>
       </c>
       <c r="J17">
-        <v>1.078293096248473</v>
+        <v>1.078293096248487</v>
       </c>
       <c r="K17">
-        <v>0.3436327425758492</v>
+        <v>0.3436327425758421</v>
       </c>
       <c r="L17">
-        <v>0.9446583788692138</v>
+        <v>0.9446583788692635</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.549441563193227</v>
+        <v>2.549441563193341</v>
       </c>
       <c r="C18">
-        <v>2.077135937303012</v>
+        <v>2.077135937303581</v>
       </c>
       <c r="D18">
-        <v>0.286809852100177</v>
+        <v>0.2868098520999212</v>
       </c>
       <c r="E18">
-        <v>0.04220799477367621</v>
+        <v>0.04220799477348436</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13.64382804835554</v>
+        <v>13.64382804835503</v>
       </c>
       <c r="I18">
-        <v>0.005722343210714076</v>
+        <v>0.005722343210756708</v>
       </c>
       <c r="J18">
-        <v>1.044559898691674</v>
+        <v>1.044559898691659</v>
       </c>
       <c r="K18">
-        <v>0.3341156875420381</v>
+        <v>0.3341156875420666</v>
       </c>
       <c r="L18">
-        <v>0.9161841121407335</v>
+        <v>0.9161841121407477</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.520461152444625</v>
+        <v>2.520461152444227</v>
       </c>
       <c r="C19">
-        <v>2.055926511822861</v>
+        <v>2.055926511824168</v>
       </c>
       <c r="D19">
-        <v>0.283978718500336</v>
+        <v>0.2839787185001228</v>
       </c>
       <c r="E19">
-        <v>0.04189867360972066</v>
+        <v>0.04189867360979704</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.51867882499874</v>
+        <v>13.51867882499857</v>
       </c>
       <c r="I19">
-        <v>0.005687428589934873</v>
+        <v>0.005687428589943533</v>
       </c>
       <c r="J19">
-        <v>1.033256203286015</v>
+        <v>1.033256203286001</v>
       </c>
       <c r="K19">
-        <v>0.3309193391252165</v>
+        <v>0.3309193391252734</v>
       </c>
       <c r="L19">
-        <v>0.9066384058323038</v>
+        <v>0.9066384058323678</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.652265034255379</v>
+        <v>2.652265034255493</v>
       </c>
       <c r="C20">
-        <v>2.152081814730025</v>
+        <v>2.152081814730764</v>
       </c>
       <c r="D20">
-        <v>0.2968148717764478</v>
+        <v>0.2968148717762773</v>
       </c>
       <c r="E20">
-        <v>0.04330057762860307</v>
+        <v>0.04330057762875761</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.08553133148021</v>
+        <v>14.08553133147987</v>
       </c>
       <c r="I20">
-        <v>0.005846341872392413</v>
+        <v>0.005846341872342675</v>
       </c>
       <c r="J20">
-        <v>1.084594176464108</v>
+        <v>1.084594176464151</v>
       </c>
       <c r="K20">
-        <v>0.345406867470281</v>
+        <v>0.3454068674703663</v>
       </c>
       <c r="L20">
-        <v>0.9499750256817947</v>
+        <v>0.9499750256817876</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,13 +1137,13 @@
         <v>3.1229624234727</v>
       </c>
       <c r="C21">
-        <v>2.489403418411257</v>
+        <v>2.489403418411939</v>
       </c>
       <c r="D21">
-        <v>0.3418545679531206</v>
+        <v>0.3418545679521117</v>
       </c>
       <c r="E21">
-        <v>0.04820732529907445</v>
+        <v>0.04820732529912419</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.06373020538643</v>
+        <v>16.06373020538626</v>
       </c>
       <c r="I21">
-        <v>0.006417365832597222</v>
+        <v>0.006417365832609212</v>
       </c>
       <c r="J21">
-        <v>1.266510546318855</v>
+        <v>1.266510546318827</v>
       </c>
       <c r="K21">
-        <v>0.3961510350435873</v>
+        <v>0.3961510350435162</v>
       </c>
       <c r="L21">
-        <v>1.103177710817292</v>
+        <v>1.10317771081727</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.456415217914753</v>
+        <v>3.456415217915378</v>
       </c>
       <c r="C22">
-        <v>2.723067999095917</v>
+        <v>2.723067999096429</v>
       </c>
       <c r="D22">
-        <v>0.3730506902164876</v>
+        <v>0.3730506902165729</v>
       </c>
       <c r="E22">
-        <v>0.0515928971181765</v>
+        <v>0.05159289711825821</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17.42488365922065</v>
+        <v>17.42488365922048</v>
       </c>
       <c r="I22">
-        <v>0.006826483808313411</v>
+        <v>0.006826483808262784</v>
       </c>
       <c r="J22">
-        <v>1.394141301916832</v>
+        <v>1.394141301916747</v>
       </c>
       <c r="K22">
-        <v>0.4312174251678016</v>
+        <v>0.4312174251677803</v>
       </c>
       <c r="L22">
-        <v>1.210317151505954</v>
+        <v>1.21031715150594</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.275707971766508</v>
+        <v>3.275707971765883</v>
       </c>
       <c r="C23">
-        <v>2.596958383480569</v>
+        <v>2.596958383481081</v>
       </c>
       <c r="D23">
-        <v>0.356215070470185</v>
+        <v>0.3562150704694034</v>
       </c>
       <c r="E23">
-        <v>0.04976723955968865</v>
+        <v>0.04976723955982365</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.69118022989881</v>
+        <v>16.69118022989812</v>
       </c>
       <c r="I23">
-        <v>0.006604224181019802</v>
+        <v>0.006604224181005147</v>
       </c>
       <c r="J23">
-        <v>1.325096544410414</v>
+        <v>1.325096544410371</v>
       </c>
       <c r="K23">
-        <v>0.4123012984806067</v>
+        <v>0.4123012984806138</v>
       </c>
       <c r="L23">
-        <v>1.15239367649594</v>
+        <v>1.152393676495933</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.644933358387107</v>
+        <v>2.644933358386709</v>
       </c>
       <c r="C24">
-        <v>2.146753515229136</v>
+        <v>2.146753515229079</v>
       </c>
       <c r="D24">
-        <v>0.2961035212518084</v>
+        <v>0.2961035212519931</v>
       </c>
       <c r="E24">
-        <v>0.04322292410098072</v>
+        <v>0.04322292410086348</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.05415516288355</v>
+        <v>14.05415516288389</v>
       </c>
       <c r="I24">
-        <v>0.00583749351773144</v>
+        <v>0.005837493517617753</v>
       </c>
       <c r="J24">
-        <v>1.081743245700565</v>
+        <v>1.08174324570048</v>
       </c>
       <c r="K24">
-        <v>0.3446043018051981</v>
+        <v>0.3446043018052052</v>
       </c>
       <c r="L24">
         <v>0.9475695854679529</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.045464366466831</v>
+        <v>2.045464366466916</v>
       </c>
       <c r="C25">
-        <v>1.702520432005031</v>
+        <v>1.702520432004917</v>
       </c>
       <c r="D25">
-        <v>0.2368311908113583</v>
+        <v>0.2368311908105483</v>
       </c>
       <c r="E25">
-        <v>0.03673933549451647</v>
+        <v>0.03673933549455732</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.42327904834934</v>
+        <v>11.42327904834949</v>
       </c>
       <c r="I25">
-        <v>0.005116131709715921</v>
+        <v>0.005116131709667071</v>
       </c>
       <c r="J25">
         <v>0.84663438386076</v>
       </c>
       <c r="K25">
-        <v>0.2776060259283213</v>
+        <v>0.2776060259283426</v>
       </c>
       <c r="L25">
-        <v>0.7487427948102408</v>
+        <v>0.7487427948102763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.649430102427317</v>
+        <v>1.630900409793014</v>
       </c>
       <c r="C2">
-        <v>1.398494487364985</v>
+        <v>1.391982852142405</v>
       </c>
       <c r="D2">
-        <v>0.1963412574345256</v>
+        <v>0.1952210410813109</v>
       </c>
       <c r="E2">
-        <v>0.0323011512036615</v>
+        <v>0.03135682290886521</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000805335383209107</v>
       </c>
       <c r="H2">
-        <v>9.604043306797223</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00463779604188419</v>
+        <v>9.622139635730178</v>
       </c>
       <c r="J2">
-        <v>0.6888505567608547</v>
+        <v>0.004152970185326232</v>
       </c>
       <c r="K2">
-        <v>0.2316897957986725</v>
+        <v>0.6828962830174845</v>
       </c>
       <c r="L2">
-        <v>0.6148360843909657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2310344508873499</v>
+      </c>
+      <c r="M2">
+        <v>0.6118571898899816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.400658845933407</v>
+        <v>1.387119421552768</v>
       </c>
       <c r="C3">
-        <v>1.20230445701975</v>
+        <v>1.198514642088071</v>
       </c>
       <c r="D3">
-        <v>0.1702717499295119</v>
+        <v>0.1693034864838268</v>
       </c>
       <c r="E3">
-        <v>0.0294441851714744</v>
+        <v>0.02848957241218031</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008192313067027845</v>
       </c>
       <c r="H3">
-        <v>8.420574505830189</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004333423992409546</v>
+        <v>8.445539454350268</v>
       </c>
       <c r="J3">
-        <v>0.5885266658662829</v>
+        <v>0.00386301118259702</v>
       </c>
       <c r="K3">
-        <v>0.2020577275165962</v>
+        <v>0.5843634009962955</v>
       </c>
       <c r="L3">
-        <v>0.5295237692995869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2016412057849948</v>
+      </c>
+      <c r="M3">
+        <v>0.5277023902412736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.255369835246427</v>
+        <v>1.244846050898985</v>
       </c>
       <c r="C4">
-        <v>1.085527860309753</v>
+        <v>1.08337744258489</v>
       </c>
       <c r="D4">
-        <v>0.1547863624164023</v>
+        <v>0.1539047262509996</v>
       </c>
       <c r="E4">
-        <v>0.02774905295073893</v>
+        <v>0.02678689030340209</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008278713907531348</v>
       </c>
       <c r="H4">
-        <v>7.712018302513997</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004153028610923926</v>
+        <v>7.740947550266554</v>
       </c>
       <c r="J4">
-        <v>0.5294270176332034</v>
+        <v>0.003691321776720713</v>
       </c>
       <c r="K4">
-        <v>0.184428622990076</v>
+        <v>0.526346219685017</v>
       </c>
       <c r="L4">
-        <v>0.4792161943100908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1841527240983254</v>
+      </c>
+      <c r="M4">
+        <v>0.478089098851612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.197758686988607</v>
+        <v>1.188457205416313</v>
       </c>
       <c r="C5">
-        <v>1.03871838021746</v>
+        <v>1.037231000314591</v>
       </c>
       <c r="D5">
-        <v>0.1485874059287511</v>
+        <v>0.1477396963079372</v>
       </c>
       <c r="E5">
-        <v>0.02707116788006658</v>
+        <v>0.02610564095475354</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008314255565694621</v>
       </c>
       <c r="H5">
-        <v>7.427026515506697</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004080742199813026</v>
+        <v>7.457520102212897</v>
       </c>
       <c r="J5">
-        <v>0.5058761438439916</v>
+        <v>0.003622561651793976</v>
       </c>
       <c r="K5">
-        <v>0.1773654111507277</v>
+        <v>0.5032340633864507</v>
       </c>
       <c r="L5">
-        <v>0.4591603020499875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1771456528927473</v>
+      </c>
+      <c r="M5">
+        <v>0.4583134079203859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.188281299723627</v>
+        <v>1.179182526427184</v>
       </c>
       <c r="C6">
-        <v>1.030988714164494</v>
+        <v>1.029611204434161</v>
       </c>
       <c r="D6">
-        <v>0.1475642804259536</v>
+        <v>0.1467221290557035</v>
       </c>
       <c r="E6">
-        <v>0.02695933194089939</v>
+        <v>0.02599322959217609</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008320178963392991</v>
       </c>
       <c r="H6">
-        <v>7.379908917412621</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004068802460169829</v>
+        <v>7.410659494995599</v>
       </c>
       <c r="J6">
-        <v>0.5019951592933936</v>
+        <v>0.003611206533333133</v>
       </c>
       <c r="K6">
-        <v>0.176199295082192</v>
+        <v>0.4994258328547261</v>
       </c>
       <c r="L6">
-        <v>0.4558548545994725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1759887976163732</v>
+      </c>
+      <c r="M6">
+        <v>0.4550543595055245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.25458675353309</v>
+        <v>1.244079473652448</v>
       </c>
       <c r="C7">
-        <v>1.084893603529281</v>
+        <v>1.082752144585243</v>
       </c>
       <c r="D7">
-        <v>0.1547023338908105</v>
+        <v>0.1538211604765678</v>
       </c>
       <c r="E7">
-        <v>0.02773986094697278</v>
+        <v>0.02677765406530419</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008279191812957594</v>
       </c>
       <c r="H7">
-        <v>7.708160600341955</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.004152049257406309</v>
+        <v>7.737111137543081</v>
       </c>
       <c r="J7">
-        <v>0.5291073624830531</v>
+        <v>0.003690390049395642</v>
       </c>
       <c r="K7">
-        <v>0.1843329031066574</v>
+        <v>0.526032488631067</v>
       </c>
       <c r="L7">
-        <v>0.4789440062928918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.184057765646827</v>
+      </c>
+      <c r="M7">
+        <v>0.4778206990843472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.561924329436039</v>
+        <v>1.545129030213161</v>
       </c>
       <c r="C8">
-        <v>1.32998719577472</v>
+        <v>1.324422612630315</v>
       </c>
       <c r="D8">
-        <v>0.1872315808476941</v>
+        <v>0.186165344432041</v>
       </c>
       <c r="E8">
-        <v>0.03130255141640781</v>
+        <v>0.03035494880020018</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000810108247311502</v>
       </c>
       <c r="H8">
-        <v>9.191710417161715</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.004531236098363811</v>
+        <v>9.212235863729632</v>
       </c>
       <c r="J8">
-        <v>0.6536779612802732</v>
+        <v>0.004051419385129318</v>
       </c>
       <c r="K8">
-        <v>0.2213416077711017</v>
+        <v>0.6483460834404582</v>
       </c>
       <c r="L8">
-        <v>0.5849400965923977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2207700888760016</v>
+      </c>
+      <c r="M8">
+        <v>0.5823646593814402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.238993731009145</v>
+        <v>2.209160829258451</v>
       </c>
       <c r="C9">
-        <v>1.847872521822126</v>
+        <v>1.835172199140743</v>
       </c>
       <c r="D9">
-        <v>0.2562150369197127</v>
+        <v>0.2547152986452659</v>
       </c>
       <c r="E9">
-        <v>0.03886214865400461</v>
+        <v>0.03793202102411719</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007757091848319516</v>
       </c>
       <c r="H9">
-        <v>12.28745289406439</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.005348829341036421</v>
+        <v>12.28872549046363</v>
       </c>
       <c r="J9">
-        <v>0.9229887595754462</v>
+        <v>0.004831424832604903</v>
       </c>
       <c r="K9">
-        <v>0.2995441613816396</v>
+        <v>0.9129827386282301</v>
       </c>
       <c r="L9">
-        <v>0.8134108117912433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2983235554579196</v>
+      </c>
+      <c r="M9">
+        <v>0.8077758672556001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.808354004586249</v>
+        <v>2.767898501432285</v>
       </c>
       <c r="C10">
-        <v>2.26496495702321</v>
+        <v>2.246442962673996</v>
       </c>
       <c r="D10">
-        <v>0.311886336667726</v>
+        <v>0.3099913067692768</v>
       </c>
       <c r="E10">
-        <v>0.04494474938805126</v>
+        <v>0.04401799239129645</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007501933558351956</v>
       </c>
       <c r="H10">
-        <v>14.74930048839863</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.006035010587695178</v>
+        <v>14.73338819932266</v>
       </c>
       <c r="J10">
-        <v>1.145159643244199</v>
+        <v>0.005487203147760411</v>
       </c>
       <c r="K10">
-        <v>0.3624026887192358</v>
+        <v>1.131357222908377</v>
       </c>
       <c r="L10">
-        <v>1.001043989732835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3606255625860868</v>
+      </c>
+      <c r="M10">
+        <v>0.9928773467184726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.091073688122265</v>
+        <v>3.045349929930182</v>
       </c>
       <c r="C11">
-        <v>2.466835265692282</v>
+        <v>2.44543071996776</v>
       </c>
       <c r="D11">
-        <v>0.3388411786184804</v>
+        <v>0.3367380346575146</v>
       </c>
       <c r="E11">
-        <v>0.0478796973287352</v>
+        <v>0.04695148092453394</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007383643440988555</v>
       </c>
       <c r="H11">
-        <v>15.93187320341349</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.006378463533787349</v>
+        <v>15.9070137965391</v>
       </c>
       <c r="J11">
-        <v>1.254252828660697</v>
+        <v>0.005815688178337997</v>
       </c>
       <c r="K11">
-        <v>0.3927603113457607</v>
+        <v>1.238573010596895</v>
       </c>
       <c r="L11">
-        <v>1.092872781954128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.390699681836729</v>
+      </c>
+      <c r="M11">
+        <v>1.083440010890897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.202455875002784</v>
+        <v>3.154648343461361</v>
       </c>
       <c r="C12">
-        <v>2.545489979168281</v>
+        <v>2.522946769531131</v>
       </c>
       <c r="D12">
-        <v>0.3493432856064516</v>
+        <v>0.3471558062452118</v>
       </c>
       <c r="E12">
-        <v>0.04902108626537682</v>
+        <v>0.04809176716798902</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007338344060144204</v>
       </c>
       <c r="H12">
-        <v>16.39112170953871</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.006514502940505817</v>
+        <v>16.36265318178744</v>
       </c>
       <c r="J12">
-        <v>1.297026676160854</v>
+        <v>0.005945830308111688</v>
       </c>
       <c r="K12">
-        <v>0.4045748185665019</v>
+        <v>1.28060538826</v>
       </c>
       <c r="L12">
-        <v>1.12882078544672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4024008433111561</v>
+      </c>
+      <c r="M12">
+        <v>1.118885517868208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.17825814497013</v>
+        <v>3.130903866134986</v>
       </c>
       <c r="C13">
-        <v>2.528443131775418</v>
+        <v>2.506147517748559</v>
       </c>
       <c r="D13">
-        <v>0.3470672107432193</v>
+        <v>0.3448981697747087</v>
       </c>
       <c r="E13">
-        <v>0.0487738243182072</v>
+        <v>0.0478447696026727</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007348126094499197</v>
       </c>
       <c r="H13">
-        <v>16.29166018533402</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.006484909828761154</v>
+        <v>16.26397995642759</v>
       </c>
       <c r="J13">
-        <v>1.287743656593847</v>
+        <v>0.00591751879175928</v>
       </c>
       <c r="K13">
-        <v>0.4020149472951218</v>
+        <v>1.271483594850636</v>
       </c>
       <c r="L13">
-        <v>1.121021892116566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.399865682160609</v>
+      </c>
+      <c r="M13">
+        <v>1.111196003412388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.100144389543004</v>
+        <v>3.054251163182187</v>
       </c>
       <c r="C14">
-        <v>2.473258798758877</v>
+        <v>2.451761613473479</v>
       </c>
       <c r="D14">
-        <v>0.339698877653845</v>
+        <v>0.337588916526002</v>
       </c>
       <c r="E14">
-        <v>0.0479729601397203</v>
+        <v>0.04704466489806691</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000737992801243977</v>
       </c>
       <c r="H14">
-        <v>15.96941051153181</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006389525583826883</v>
+        <v>15.94425902629689</v>
       </c>
       <c r="J14">
-        <v>1.257740468712498</v>
+        <v>0.005826270114769327</v>
       </c>
       <c r="K14">
-        <v>0.3937254735540563</v>
+        <v>1.242000324759957</v>
       </c>
       <c r="L14">
-        <v>1.095805071478225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3916556506012725</v>
+      </c>
+      <c r="M14">
+        <v>1.086331468266629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.052891804432647</v>
+        <v>3.007881007023286</v>
       </c>
       <c r="C15">
-        <v>2.439760718012565</v>
+        <v>2.418745975667946</v>
       </c>
       <c r="D15">
-        <v>0.335226038875561</v>
+        <v>0.33315149322938</v>
       </c>
       <c r="E15">
-        <v>0.04748651226164213</v>
+        <v>0.04655860622438723</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007399335385550411</v>
       </c>
       <c r="H15">
-        <v>15.77359513872892</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.006331930585926182</v>
+        <v>15.74996167823605</v>
       </c>
       <c r="J15">
-        <v>1.239563745035326</v>
+        <v>0.005771176052458582</v>
       </c>
       <c r="K15">
-        <v>0.3886916729110084</v>
+        <v>1.224137766848685</v>
       </c>
       <c r="L15">
-        <v>1.080520356840104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3866696718666631</v>
+      </c>
+      <c r="M15">
+        <v>1.071259300081707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.790427230699891</v>
+        <v>2.75030522786534</v>
       </c>
       <c r="C16">
-        <v>2.252053484927899</v>
+        <v>2.233714118271052</v>
       </c>
       <c r="D16">
-        <v>0.3101623904925646</v>
+        <v>0.3082802793124415</v>
       </c>
       <c r="E16">
-        <v>0.04475678899551028</v>
+        <v>0.04383005793897254</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007509604613130357</v>
       </c>
       <c r="H16">
-        <v>14.67347074972412</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006013311704712754</v>
+        <v>14.65811591100956</v>
       </c>
       <c r="J16">
-        <v>1.138216162806401</v>
+        <v>0.005466454470713478</v>
       </c>
       <c r="K16">
-        <v>0.3604594191604278</v>
+        <v>1.124532718377367</v>
       </c>
       <c r="L16">
-        <v>0.9951923918205168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3587000842839387</v>
+      </c>
+      <c r="M16">
+        <v>0.987105680921843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.636062598096885</v>
+        <v>2.598812273027022</v>
       </c>
       <c r="C17">
-        <v>2.140303508831494</v>
+        <v>2.123537267298786</v>
       </c>
       <c r="D17">
-        <v>0.2952424257048563</v>
+        <v>0.293470240693992</v>
       </c>
       <c r="E17">
-        <v>0.04312891794079121</v>
+        <v>0.04220206944503779</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007576564996774675</v>
       </c>
       <c r="H17">
-        <v>14.0161682483625</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005826789174381286</v>
+        <v>14.00556733542203</v>
       </c>
       <c r="J17">
-        <v>1.078293096248487</v>
+        <v>0.005288126299477725</v>
       </c>
       <c r="K17">
-        <v>0.3436327425758421</v>
+        <v>1.065634726439455</v>
       </c>
       <c r="L17">
-        <v>0.9446583788692635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.3420257910458133</v>
+      </c>
+      <c r="M17">
+        <v>0.9372587996931898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.549441563193341</v>
+        <v>2.513803914301604</v>
       </c>
       <c r="C18">
-        <v>2.077135937303581</v>
+        <v>2.061253491950367</v>
       </c>
       <c r="D18">
-        <v>0.2868098520999212</v>
+        <v>0.285098342532379</v>
       </c>
       <c r="E18">
-        <v>0.04220799477348436</v>
+        <v>0.04128080628955288</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007614883684800861</v>
       </c>
       <c r="H18">
-        <v>13.64382804835503</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005722343210756708</v>
+        <v>13.6358596302706</v>
       </c>
       <c r="J18">
-        <v>1.044559898691659</v>
+        <v>0.005188291459787608</v>
       </c>
       <c r="K18">
-        <v>0.3341156875420666</v>
+        <v>1.032477650350799</v>
       </c>
       <c r="L18">
-        <v>0.9161841121407477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.3325936517008685</v>
+      </c>
+      <c r="M18">
+        <v>0.9091694850134218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.520461152444227</v>
+        <v>2.485363472605115</v>
       </c>
       <c r="C19">
-        <v>2.055926511824168</v>
+        <v>2.040340028963726</v>
       </c>
       <c r="D19">
-        <v>0.2839787185001228</v>
+        <v>0.2822873505998587</v>
       </c>
       <c r="E19">
-        <v>0.04189867360979704</v>
+        <v>0.04097132616587018</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007627829145823701</v>
       </c>
       <c r="H19">
-        <v>13.51867882499857</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.005687428589943533</v>
+        <v>13.51158569145792</v>
       </c>
       <c r="J19">
-        <v>1.033256203286001</v>
+        <v>0.00515492220025604</v>
       </c>
       <c r="K19">
-        <v>0.3309193391252734</v>
+        <v>1.021366927601122</v>
       </c>
       <c r="L19">
-        <v>0.9066384058323678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.329425625663589</v>
+      </c>
+      <c r="M19">
+        <v>0.8997525171054477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.652265034255493</v>
+        <v>2.614713213811967</v>
       </c>
       <c r="C20">
-        <v>2.152081814730764</v>
+        <v>2.135150369486041</v>
       </c>
       <c r="D20">
-        <v>0.2968148717762773</v>
+        <v>0.2950312578624192</v>
       </c>
       <c r="E20">
-        <v>0.04330057762875761</v>
+        <v>0.04237377055595992</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007569458345800806</v>
       </c>
       <c r="H20">
-        <v>14.08553133147987</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.005846341872342675</v>
+        <v>14.07443525282926</v>
       </c>
       <c r="J20">
-        <v>1.084594176464151</v>
+        <v>0.005306817659174401</v>
       </c>
       <c r="K20">
-        <v>0.3454068674703663</v>
+        <v>1.071828134777434</v>
       </c>
       <c r="L20">
-        <v>0.9499750256817876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3437839870782184</v>
+      </c>
+      <c r="M20">
+        <v>0.9425034030775663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.1229624234727</v>
+        <v>3.076642718709877</v>
       </c>
       <c r="C21">
-        <v>2.489403418411939</v>
+        <v>2.467673125837166</v>
       </c>
       <c r="D21">
-        <v>0.3418545679521117</v>
+        <v>0.3397274181060368</v>
       </c>
       <c r="E21">
-        <v>0.04820732529912419</v>
+        <v>0.04727882310437437</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007370602473884402</v>
       </c>
       <c r="H21">
-        <v>16.06373020538626</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.006417365832609212</v>
+        <v>16.03784254515728</v>
       </c>
       <c r="J21">
-        <v>1.266510546318827</v>
+        <v>0.005852902515182334</v>
       </c>
       <c r="K21">
-        <v>0.3961510350435162</v>
+        <v>1.250618606746656</v>
       </c>
       <c r="L21">
-        <v>1.10317771081727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3940580566139502</v>
+      </c>
+      <c r="M21">
+        <v>1.093601323240527</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.456415217915378</v>
+        <v>3.403827211784176</v>
       </c>
       <c r="C22">
-        <v>2.723067999096429</v>
+        <v>2.697916430786393</v>
       </c>
       <c r="D22">
-        <v>0.3730506902165729</v>
+        <v>0.3706656580324079</v>
       </c>
       <c r="E22">
-        <v>0.05159289711825821</v>
+        <v>0.05065998554528406</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007237565398988458</v>
       </c>
       <c r="H22">
-        <v>17.42488365922048</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.006826483808262784</v>
+        <v>17.38799470268305</v>
       </c>
       <c r="J22">
-        <v>1.394141301916747</v>
+        <v>0.006244334325822942</v>
       </c>
       <c r="K22">
-        <v>0.4312174251677803</v>
+        <v>1.376021459936354</v>
       </c>
       <c r="L22">
-        <v>1.21031715150594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.4287810322301553</v>
+      </c>
+      <c r="M22">
+        <v>1.199225735917068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.275707971765883</v>
+        <v>3.226526209705867</v>
       </c>
       <c r="C23">
-        <v>2.596958383481081</v>
+        <v>2.573664772681013</v>
       </c>
       <c r="D23">
-        <v>0.3562150704694034</v>
+        <v>0.3539713726345184</v>
       </c>
       <c r="E23">
-        <v>0.04976723955982365</v>
+        <v>0.04883703687121965</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007308926842075826</v>
       </c>
       <c r="H23">
-        <v>16.69118022989812</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.006604224181005147</v>
+        <v>16.66031077038059</v>
       </c>
       <c r="J23">
-        <v>1.325096544410371</v>
+        <v>0.006031669820386831</v>
       </c>
       <c r="K23">
-        <v>0.4123012984806138</v>
+        <v>1.308186619126133</v>
       </c>
       <c r="L23">
-        <v>1.152393676495933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.4100522190779827</v>
+      </c>
+      <c r="M23">
+        <v>1.142126520454049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.644933358386709</v>
+        <v>2.607517961443648</v>
       </c>
       <c r="C24">
-        <v>2.146753515229079</v>
+        <v>2.129896821853436</v>
       </c>
       <c r="D24">
-        <v>0.2961035212519931</v>
+        <v>0.2943250821015226</v>
       </c>
       <c r="E24">
-        <v>0.04322292410086348</v>
+        <v>0.0422960991411454</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007572671801301389</v>
       </c>
       <c r="H24">
-        <v>14.05415516288389</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.005837493517617753</v>
+        <v>14.04328325790758</v>
       </c>
       <c r="J24">
-        <v>1.08174324570048</v>
+        <v>0.005298359022178678</v>
       </c>
       <c r="K24">
-        <v>0.3446043018052052</v>
+        <v>1.069025922985986</v>
       </c>
       <c r="L24">
-        <v>0.9475695854679529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3429886311216066</v>
+      </c>
+      <c r="M24">
+        <v>0.9401305646634626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.045464366466916</v>
+        <v>2.019286929228599</v>
       </c>
       <c r="C25">
-        <v>1.702520432004917</v>
+        <v>1.691823592043818</v>
       </c>
       <c r="D25">
-        <v>0.2368311908105483</v>
+        <v>0.2354591792578304</v>
       </c>
       <c r="E25">
-        <v>0.03673933549455732</v>
+        <v>0.03580590130122019</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007850099957691178</v>
       </c>
       <c r="H25">
-        <v>11.42327904834949</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.005116131709667071</v>
+        <v>11.43017076958427</v>
       </c>
       <c r="J25">
-        <v>0.84663438386076</v>
+        <v>0.004609244622983288</v>
       </c>
       <c r="K25">
-        <v>0.2776060259283426</v>
+        <v>0.8379376187779286</v>
       </c>
       <c r="L25">
-        <v>0.7487427948102763</v>
+        <v>0.2765715774075233</v>
+      </c>
+      <c r="M25">
+        <v>0.7439715341645865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.630900409793014</v>
+        <v>3.301341469216311</v>
       </c>
       <c r="C2">
-        <v>1.391982852142405</v>
+        <v>0.5266329859218501</v>
       </c>
       <c r="D2">
-        <v>0.1952210410813109</v>
+        <v>0.1942283841351582</v>
       </c>
       <c r="E2">
-        <v>0.03135682290886521</v>
+        <v>0.02252894295476215</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000805335383209107</v>
+        <v>0.0008178905039301278</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.622139635730178</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004152970185326232</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6828962830174845</v>
+        <v>0.8155559227909066</v>
       </c>
       <c r="L2">
-        <v>0.2310344508873499</v>
+        <v>0.1482286766302678</v>
       </c>
       <c r="M2">
-        <v>0.6118571898899816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.528132655079304</v>
+      </c>
+      <c r="N2">
+        <v>1.977593911278561</v>
+      </c>
+      <c r="O2">
+        <v>2.301705971865658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.387119421552768</v>
+        <v>2.883891883694105</v>
       </c>
       <c r="C3">
-        <v>1.198514642088071</v>
+        <v>0.452738677538207</v>
       </c>
       <c r="D3">
-        <v>0.1693034864838268</v>
+        <v>0.1673947299900505</v>
       </c>
       <c r="E3">
-        <v>0.02848957241218031</v>
+        <v>0.02197406231598764</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008192313067027845</v>
+        <v>0.000827419547702247</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.445539454350268</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00386301118259702</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5843634009962955</v>
+        <v>0.7071645589103213</v>
       </c>
       <c r="L3">
-        <v>0.2016412057849948</v>
+        <v>0.1343332879731491</v>
       </c>
       <c r="M3">
-        <v>0.5277023902412736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4641583104027234</v>
+      </c>
+      <c r="N3">
+        <v>1.969920315210089</v>
+      </c>
+      <c r="O3">
+        <v>2.116543062646755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.244846050898985</v>
+        <v>2.633325165939652</v>
       </c>
       <c r="C4">
-        <v>1.08337744258489</v>
+        <v>0.4081557088986756</v>
       </c>
       <c r="D4">
-        <v>0.1539047262509996</v>
+        <v>0.1512481406856239</v>
       </c>
       <c r="E4">
-        <v>0.02678689030340209</v>
+        <v>0.02164147972009012</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008278713907531348</v>
+        <v>0.0008334168686621164</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.740947550266554</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.003691321776720713</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.526346219685017</v>
+        <v>0.6420152901130081</v>
       </c>
       <c r="L4">
-        <v>0.1841527240983254</v>
+        <v>0.1260538652960648</v>
       </c>
       <c r="M4">
-        <v>0.478089098851612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4258035266629534</v>
+      </c>
+      <c r="N4">
+        <v>1.967622975655402</v>
+      </c>
+      <c r="O4">
+        <v>2.007389657285373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.188457205416313</v>
+        <v>2.532486628349147</v>
       </c>
       <c r="C5">
-        <v>1.037231000314591</v>
+        <v>0.3901538152519493</v>
       </c>
       <c r="D5">
-        <v>0.1477396963079372</v>
+        <v>0.1447395371077391</v>
       </c>
       <c r="E5">
-        <v>0.02610564095475354</v>
+        <v>0.02150757761918198</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008314255565694621</v>
+        <v>0.0008358997410586828</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.457520102212897</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003622561651793976</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5032340633864507</v>
+        <v>0.6157733878980522</v>
       </c>
       <c r="L5">
-        <v>0.1771456528927473</v>
+        <v>0.1227373578635209</v>
       </c>
       <c r="M5">
-        <v>0.4583134079203859</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4103793438263637</v>
+      </c>
+      <c r="N5">
+        <v>1.96725191450814</v>
+      </c>
+      <c r="O5">
+        <v>1.963936931848792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.179182526427184</v>
+        <v>2.51581428412652</v>
       </c>
       <c r="C6">
-        <v>1.029611204434161</v>
+        <v>0.3871737566170168</v>
       </c>
       <c r="D6">
-        <v>0.1467221290557035</v>
+        <v>0.1436627739294352</v>
       </c>
       <c r="E6">
-        <v>0.02599322959217609</v>
+        <v>0.02148543040442563</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008320178963392991</v>
+        <v>0.0008363144282904796</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.410659494995599</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.003611206533333133</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4994258328547261</v>
+        <v>0.6114332141793426</v>
       </c>
       <c r="L6">
-        <v>0.1759887976163732</v>
+        <v>0.1221899558490946</v>
       </c>
       <c r="M6">
-        <v>0.4550543595055245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4078298479550568</v>
+      </c>
+      <c r="N6">
+        <v>1.967223277281562</v>
+      </c>
+      <c r="O6">
+        <v>1.956780633699381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.244079473652448</v>
+        <v>2.631960303660378</v>
       </c>
       <c r="C7">
-        <v>1.082752144585243</v>
+        <v>0.4079122972439961</v>
       </c>
       <c r="D7">
-        <v>0.1538211604765678</v>
+        <v>0.1511600893768161</v>
       </c>
       <c r="E7">
-        <v>0.02677765406530419</v>
+        <v>0.02163966778995219</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008279191812957594</v>
+        <v>0.0008334501932704338</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.737111137543081</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.003690390049395642</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.526032488631067</v>
+        <v>0.6416601975222349</v>
       </c>
       <c r="L7">
-        <v>0.184057765646827</v>
+        <v>0.1260089128138659</v>
       </c>
       <c r="M7">
-        <v>0.4778206990843472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4255947118894738</v>
+      </c>
+      <c r="N7">
+        <v>1.967615735913469</v>
+      </c>
+      <c r="O7">
+        <v>2.006799617269252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.545129030213161</v>
+        <v>3.156100344581034</v>
       </c>
       <c r="C8">
-        <v>1.324422612630315</v>
+        <v>0.5009701944215408</v>
       </c>
       <c r="D8">
-        <v>0.186165344432041</v>
+        <v>0.1849004756549704</v>
       </c>
       <c r="E8">
-        <v>0.03035494880020018</v>
+        <v>0.02233567173411499</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.000810108247311502</v>
+        <v>0.0008211470383845144</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.212235863729632</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.004051419385129318</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6483460834404582</v>
+        <v>0.7778622496582273</v>
       </c>
       <c r="L8">
-        <v>0.2207700888760016</v>
+        <v>0.1433813487564493</v>
       </c>
       <c r="M8">
-        <v>0.5823646593814402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5058650690845639</v>
+      </c>
+      <c r="N8">
+        <v>1.974420466062213</v>
+      </c>
+      <c r="O8">
+        <v>2.236848831229906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.209160829258451</v>
+        <v>4.238472558842204</v>
       </c>
       <c r="C9">
-        <v>1.835172199140743</v>
+        <v>0.6913507652068631</v>
       </c>
       <c r="D9">
-        <v>0.2547152986452659</v>
+        <v>0.2542634480349761</v>
       </c>
       <c r="E9">
-        <v>0.03793202102411719</v>
+        <v>0.02378642504310369</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007757091848319516</v>
+        <v>0.0007980775946377237</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.28872549046363</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.004831424832604903</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9129827386282301</v>
+        <v>1.058418493522026</v>
       </c>
       <c r="L9">
-        <v>0.2983235554579196</v>
+        <v>0.1797560965441178</v>
       </c>
       <c r="M9">
-        <v>0.8077758672556001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6719897584565686</v>
+      </c>
+      <c r="N9">
+        <v>2.009040430414885</v>
+      </c>
+      <c r="O9">
+        <v>2.7296818238855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.767898501432285</v>
+        <v>5.081092100055969</v>
       </c>
       <c r="C10">
-        <v>2.246442962673996</v>
+        <v>0.8386504575192077</v>
       </c>
       <c r="D10">
-        <v>0.3099913067692768</v>
+        <v>0.3081009954548222</v>
       </c>
       <c r="E10">
-        <v>0.04401799239129645</v>
+        <v>0.02493995779059466</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007501933558351956</v>
+        <v>0.0007816074049598677</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.73338819932266</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.005487203147760411</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.131357222908377</v>
+        <v>1.276451132998673</v>
       </c>
       <c r="L10">
-        <v>0.3606255625860868</v>
+        <v>0.2083685455362456</v>
       </c>
       <c r="M10">
-        <v>0.9928773467184726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8015255738070479</v>
+      </c>
+      <c r="N10">
+        <v>2.050807879146731</v>
+      </c>
+      <c r="O10">
+        <v>3.126245978110134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.045349929930182</v>
+        <v>5.478440630036744</v>
       </c>
       <c r="C11">
-        <v>2.44543071996776</v>
+        <v>0.9079677235864381</v>
       </c>
       <c r="D11">
-        <v>0.3367380346575146</v>
+        <v>0.3334615130154646</v>
       </c>
       <c r="E11">
-        <v>0.04695148092453394</v>
+        <v>0.02549353010102973</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007383643440988555</v>
+        <v>0.00077417549607328</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.9070137965391</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.005815688178337997</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.238573010596895</v>
+        <v>1.379201315004494</v>
       </c>
       <c r="L11">
-        <v>0.390699681836729</v>
+        <v>0.2219208065613714</v>
       </c>
       <c r="M11">
-        <v>1.083440010890897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8626506313419711</v>
+      </c>
+      <c r="N11">
+        <v>2.074244308841116</v>
+      </c>
+      <c r="O11">
+        <v>3.316528491025636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.154648343461361</v>
+        <v>5.631290320841458</v>
       </c>
       <c r="C12">
-        <v>2.522946769531131</v>
+        <v>0.9346171861666335</v>
       </c>
       <c r="D12">
-        <v>0.3471558062452118</v>
+        <v>0.3432138370871627</v>
       </c>
       <c r="E12">
-        <v>0.04809176716798902</v>
+        <v>0.02570830056644757</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007338344060144204</v>
+        <v>0.0007713657111108138</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.36265318178744</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.005945830308111688</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.28060538826</v>
+        <v>1.418718849984757</v>
       </c>
       <c r="L12">
-        <v>0.4024008433111561</v>
+        <v>0.2271420751028614</v>
       </c>
       <c r="M12">
-        <v>1.118885517868208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.886169185539714</v>
+      </c>
+      <c r="N12">
+        <v>2.083844950768054</v>
+      </c>
+      <c r="O12">
+        <v>3.390239902147101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.130903866134986</v>
+        <v>5.59825905569312</v>
       </c>
       <c r="C13">
-        <v>2.506147517748559</v>
+        <v>0.9288587294685158</v>
       </c>
       <c r="D13">
-        <v>0.3448981697747087</v>
+        <v>0.3411064617667421</v>
       </c>
       <c r="E13">
-        <v>0.0478447696026727</v>
+        <v>0.02566179915802147</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007348126094499197</v>
+        <v>0.0007719707208386599</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.26397995642759</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.00591751879175928</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.271483594850636</v>
+        <v>1.410179310925628</v>
       </c>
       <c r="L13">
-        <v>0.399865682160609</v>
+        <v>0.2260133954711989</v>
       </c>
       <c r="M13">
-        <v>1.111196003412388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.8810865305024436</v>
+      </c>
+      <c r="N13">
+        <v>2.081743456706818</v>
+      </c>
+      <c r="O13">
+        <v>3.374287082037199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.054251163182187</v>
+        <v>5.490965637125385</v>
       </c>
       <c r="C14">
-        <v>2.451761613473479</v>
+        <v>0.9101517338508529</v>
       </c>
       <c r="D14">
-        <v>0.337588916526002</v>
+        <v>0.3342607102892572</v>
       </c>
       <c r="E14">
-        <v>0.04704466489806691</v>
+        <v>0.02551108989707229</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000737992801243977</v>
+        <v>0.0007739442689622005</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.94425902629689</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.005826270114769327</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.242000324759957</v>
+        <v>1.382439656729133</v>
       </c>
       <c r="L14">
-        <v>0.3916556506012725</v>
+        <v>0.2223484971060969</v>
       </c>
       <c r="M14">
-        <v>1.086331468266629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8645777163452522</v>
+      </c>
+      <c r="N14">
+        <v>2.075019062258121</v>
+      </c>
+      <c r="O14">
+        <v>3.322558123360395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.007881007023286</v>
+        <v>5.425567320262758</v>
       </c>
       <c r="C15">
-        <v>2.418745975667946</v>
+        <v>0.898747530089679</v>
       </c>
       <c r="D15">
-        <v>0.33315149322938</v>
+        <v>0.3300876415929537</v>
       </c>
       <c r="E15">
-        <v>0.04655860622438723</v>
+        <v>0.0254194789443698</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007399335385550411</v>
+        <v>0.0007751535779906267</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.74996167823605</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.005771176052458582</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.224137766848685</v>
+        <v>1.365530613826635</v>
       </c>
       <c r="L15">
-        <v>0.3866696718666631</v>
+        <v>0.220115665577822</v>
       </c>
       <c r="M15">
-        <v>1.071259300081707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8545158073839545</v>
+      </c>
+      <c r="N15">
+        <v>2.070997531011358</v>
+      </c>
+      <c r="O15">
+        <v>3.291095806787979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.75030522786534</v>
+        <v>5.055436790871681</v>
       </c>
       <c r="C16">
-        <v>2.233714118271052</v>
+        <v>0.8341724979836442</v>
       </c>
       <c r="D16">
-        <v>0.3082802793124415</v>
+        <v>0.306463079344482</v>
       </c>
       <c r="E16">
-        <v>0.04383005793897254</v>
+        <v>0.0249044419223603</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007509604613130357</v>
+        <v>0.0007820939708772295</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.65811591100956</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.005466454470713478</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.124532718377367</v>
+        <v>1.269815764935842</v>
       </c>
       <c r="L16">
-        <v>0.3587000842839387</v>
+        <v>0.207494669100214</v>
       </c>
       <c r="M16">
-        <v>0.987105680921843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.797579722690017</v>
+      </c>
+      <c r="N16">
+        <v>2.049372732725061</v>
+      </c>
+      <c r="O16">
+        <v>3.11402869022659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.598812273027022</v>
+        <v>4.832211320933027</v>
       </c>
       <c r="C17">
-        <v>2.123537267298786</v>
+        <v>0.7951948448411486</v>
       </c>
       <c r="D17">
-        <v>0.293470240693992</v>
+        <v>0.2922087520882002</v>
       </c>
       <c r="E17">
-        <v>0.04220206944503779</v>
+        <v>0.02459652196250639</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007576564996774675</v>
+        <v>0.0007863643762797763</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.00556733542203</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.005288126299477725</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.065634726439455</v>
+        <v>1.212074727375381</v>
       </c>
       <c r="L17">
-        <v>0.3420257910458133</v>
+        <v>0.1998976079388228</v>
       </c>
       <c r="M17">
-        <v>0.9372587996931898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7632514928092888</v>
+      </c>
+      <c r="N17">
+        <v>2.037301302334896</v>
+      </c>
+      <c r="O17">
+        <v>3.008091166349033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.513803914301604</v>
+        <v>4.705114429166542</v>
       </c>
       <c r="C18">
-        <v>2.061253491950367</v>
+        <v>0.7729886877896206</v>
       </c>
       <c r="D18">
-        <v>0.285098342532379</v>
+        <v>0.2840902707488482</v>
       </c>
       <c r="E18">
-        <v>0.04128080628955288</v>
+        <v>0.02442205812228737</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007614883684800861</v>
+        <v>0.0007888265742491431</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.6358596302706</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.005188291459787608</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.032477650350799</v>
+        <v>1.179192775593322</v>
       </c>
       <c r="L18">
-        <v>0.3325936517008685</v>
+        <v>0.1955776350134926</v>
       </c>
       <c r="M18">
-        <v>0.9091694850134218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.743709966818173</v>
+      </c>
+      <c r="N18">
+        <v>2.030769717633717</v>
+      </c>
+      <c r="O18">
+        <v>2.948073066024094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.485363472605115</v>
+        <v>4.662294046490217</v>
       </c>
       <c r="C19">
-        <v>2.040340028963726</v>
+        <v>0.7655046906242546</v>
       </c>
       <c r="D19">
-        <v>0.2822873505998587</v>
+        <v>0.2813546026369096</v>
       </c>
       <c r="E19">
-        <v>0.04097132616587018</v>
+        <v>0.02436341412148169</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007627829145823701</v>
+        <v>0.000789661375761419</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.51158569145792</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.00515492220025604</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.021366927601122</v>
+        <v>1.168113363856321</v>
       </c>
       <c r="L19">
-        <v>0.329425625663589</v>
+        <v>0.194123150761655</v>
       </c>
       <c r="M19">
-        <v>0.8997525171054477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7371268693206048</v>
+      </c>
+      <c r="N19">
+        <v>2.028626458600883</v>
+      </c>
+      <c r="O19">
+        <v>2.927902428043211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.614713213811967</v>
+        <v>4.855837404652846</v>
       </c>
       <c r="C20">
-        <v>2.135150369486041</v>
+        <v>0.7993216010057438</v>
       </c>
       <c r="D20">
-        <v>0.2950312578624192</v>
+        <v>0.2937176846288594</v>
       </c>
       <c r="E20">
-        <v>0.04237377055595992</v>
+        <v>0.02462902029974634</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007569458345800806</v>
+        <v>0.0007859091944768605</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.07443525282926</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.005306817659174401</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.071828134777434</v>
+        <v>1.218186645392038</v>
       </c>
       <c r="L20">
-        <v>0.3437839870782184</v>
+        <v>0.2007011060066901</v>
       </c>
       <c r="M20">
-        <v>0.9425034030775663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7668843873559936</v>
+      </c>
+      <c r="N20">
+        <v>2.038543134847203</v>
+      </c>
+      <c r="O20">
+        <v>3.019272176863382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.076642718709877</v>
+        <v>5.522412481503068</v>
       </c>
       <c r="C21">
-        <v>2.467673125837166</v>
+        <v>0.915634963466772</v>
       </c>
       <c r="D21">
-        <v>0.3397274181060368</v>
+        <v>0.3362672261720974</v>
       </c>
       <c r="E21">
-        <v>0.04727882310437437</v>
+        <v>0.0255552083388757</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007370602473884402</v>
+        <v>0.0007733645038257004</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.03784254515728</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.005852902515182334</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.250618606746656</v>
+        <v>1.390570123694872</v>
       </c>
       <c r="L21">
-        <v>0.3940580566139502</v>
+        <v>0.2234224363593142</v>
       </c>
       <c r="M21">
-        <v>1.093601323240527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8694161787881853</v>
+      </c>
+      <c r="N21">
+        <v>2.076973715014901</v>
+      </c>
+      <c r="O21">
+        <v>3.337705195426025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.403827211784176</v>
+        <v>5.97215522122508</v>
       </c>
       <c r="C22">
-        <v>2.697916430786393</v>
+        <v>0.9940269341699945</v>
       </c>
       <c r="D22">
-        <v>0.3706656580324079</v>
+        <v>0.3649571805029979</v>
       </c>
       <c r="E22">
-        <v>0.05065998554528406</v>
+        <v>0.02619111976548449</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007237565398988458</v>
+        <v>0.0007651897461064199</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.38799470268305</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.006244334325822942</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.376021459936354</v>
+        <v>1.506833564062461</v>
       </c>
       <c r="L22">
-        <v>0.4287810322301553</v>
+        <v>0.238799782426824</v>
       </c>
       <c r="M22">
-        <v>1.199225735917068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9386260818880245</v>
+      </c>
+      <c r="N22">
+        <v>2.106371757663538</v>
+      </c>
+      <c r="O22">
+        <v>3.555605386248544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.226526209705867</v>
+        <v>5.730693938520005</v>
       </c>
       <c r="C23">
-        <v>2.573664772681013</v>
+        <v>0.9519448846786815</v>
       </c>
       <c r="D23">
-        <v>0.3539713726345184</v>
+        <v>0.349555326325472</v>
       </c>
       <c r="E23">
-        <v>0.04883703687121965</v>
+        <v>0.0258485412694931</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007308926842075826</v>
+        <v>0.0007695521272554906</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.66031077038059</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.006031669820386831</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.308186619126133</v>
+        <v>1.444416592122707</v>
       </c>
       <c r="L23">
-        <v>0.4100522190779827</v>
+        <v>0.230539811685432</v>
       </c>
       <c r="M23">
-        <v>1.142126520454049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9014655420118913</v>
+      </c>
+      <c r="N23">
+        <v>2.090257015985827</v>
+      </c>
+      <c r="O23">
+        <v>3.438325413152938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.607517961443648</v>
+        <v>4.84515222162139</v>
       </c>
       <c r="C24">
-        <v>2.129896821853436</v>
+        <v>0.7974552684614764</v>
       </c>
       <c r="D24">
-        <v>0.2943250821015226</v>
+        <v>0.2930352596300168</v>
       </c>
       <c r="E24">
-        <v>0.0422960991411454</v>
+        <v>0.02461431988964913</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007572671801301389</v>
+        <v>0.0007861149597823616</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.04328325790758</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.005298359022178678</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.069025922985986</v>
+        <v>1.21542247580085</v>
       </c>
       <c r="L24">
-        <v>0.3429886311216066</v>
+        <v>0.2003376969197035</v>
       </c>
       <c r="M24">
-        <v>0.9401305646634626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7652413548419048</v>
+      </c>
+      <c r="N24">
+        <v>2.037980436636758</v>
+      </c>
+      <c r="O24">
+        <v>3.014214497085703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.019286929228599</v>
+        <v>3.93847021281357</v>
       </c>
       <c r="C25">
-        <v>1.691823592043818</v>
+        <v>0.6387534436194926</v>
       </c>
       <c r="D25">
-        <v>0.2354591792578304</v>
+        <v>0.2350678697292921</v>
       </c>
       <c r="E25">
-        <v>0.03580590130122019</v>
+        <v>0.02338145457419261</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007850099957691178</v>
+        <v>0.0008042212124990122</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.43017076958427</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.004609244622983288</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8379376187779286</v>
+        <v>0.9807255859834498</v>
       </c>
       <c r="L25">
-        <v>0.2765715774075233</v>
+        <v>0.1696225810159149</v>
       </c>
       <c r="M25">
-        <v>0.7439715341645865</v>
+        <v>0.6259078920618961</v>
+      </c>
+      <c r="N25">
+        <v>1.997076260982496</v>
+      </c>
+      <c r="O25">
+        <v>2.591027301517059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.301341469216311</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5266329859218501</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1942283841351582</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02252894295476215</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008178905039301278</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8155559227909066</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1482286766302678</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.528132655079304</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.977593911278561</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.301705971865658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.883891883694105</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.452738677538207</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1673947299900505</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02197406231598764</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000827419547702247</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7071645589103213</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1343332879731491</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4641583104027234</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.969920315210089</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.116543062646755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.633325165939652</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4081557088986756</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1512481406856239</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02164147972009012</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008334168686621164</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6420152901130081</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1260538652960648</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4258035266629534</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.967622975655402</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.007389657285373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.532486628349147</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3901538152519493</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1447395371077391</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02150757761918198</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008358997410586828</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6157733878980522</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1227373578635209</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4103793438263637</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.96725191450814</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.963936931848792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.51581428412652</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3871737566170168</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1436627739294352</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02148543040442563</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008363144282904796</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6114332141793426</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1221899558490946</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4078298479550568</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.967223277281562</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.956780633699381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.631960303660378</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4079122972439961</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1511600893768161</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02163966778995219</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008334501932704338</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6416601975222349</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1260089128138659</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4255947118894738</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.967615735913469</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.006799617269252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.156100344581034</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.5009701944215408</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1849004756549704</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02233567173411499</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008211470383845144</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7778622496582273</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1433813487564493</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5058650690845639</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.974420466062213</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.236848831229906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.238472558842204</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6913507652068631</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2542634480349761</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02378642504310369</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007980775946377237</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.058418493522026</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1797560965441178</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6719897584565686</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>2.009040430414885</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.7296818238855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.081092100055969</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8386504575192077</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3081009954548222</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02493995779059466</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007816074049598677</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.276451132998673</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2083685455362456</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8015255738070479</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2.050807879146731</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>3.126245978110134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.478440630036744</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.9079677235864381</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3334615130154646</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02549353010102973</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00077417549607328</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.379201315004494</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2219208065613714</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8626506313419711</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>2.074244308841116</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>3.316528491025636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.631290320841458</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.9346171861666335</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3432138370871627</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02570830056644757</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007713657111108138</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.418718849984757</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2271420751028614</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.886169185539714</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.083844950768054</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.390239902147101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.59825905569312</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.9288587294685158</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3411064617667421</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02566179915802147</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007719707208386599</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.410179310925628</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2260133954711989</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8810865305024436</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.081743456706818</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>3.374287082037199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.490965637125385</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.9101517338508529</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3342607102892572</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02551108989707229</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007739442689622005</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.382439656729133</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2223484971060969</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8645777163452522</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2.075019062258121</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>3.322558123360395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.425567320262758</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.898747530089679</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3300876415929537</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0254194789443698</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007751535779906267</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.365530613826635</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.220115665577822</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8545158073839545</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2.070997531011358</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>3.291095806787979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.055436790871681</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.8341724979836442</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.306463079344482</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0249044419223603</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007820939708772295</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.269815764935842</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.207494669100214</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.797579722690017</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>2.049372732725061</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>3.11402869022659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.832211320933027</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7951948448411486</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2922087520882002</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02459652196250639</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007863643762797763</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.212074727375381</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1998976079388228</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7632514928092888</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.037301302334896</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.008091166349033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.705114429166542</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.7729886877896206</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2840902707488482</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02442205812228737</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007888265742491431</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.179192775593322</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1955776350134926</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.743709966818173</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.030769717633717</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.948073066024094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.662294046490217</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.7655046906242546</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2813546026369096</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02436341412148169</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000789661375761419</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.168113363856321</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.194123150761655</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7371268693206048</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.028626458600883</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.927902428043211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.855837404652846</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7993216010057438</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2937176846288594</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02462902029974634</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007859091944768605</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.218186645392038</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2007011060066901</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7668843873559936</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.038543134847203</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.019272176863382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.522412481503068</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.915634963466772</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3362672261720974</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0255552083388757</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007733645038257004</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.390570123694872</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2234224363593142</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8694161787881853</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.076973715014901</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>3.337705195426025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.97215522122508</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.9940269341699945</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3649571805029979</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02619111976548449</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007651897461064199</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.506833564062461</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.238799782426824</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9386260818880245</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.106371757663538</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>3.555605386248544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.730693938520005</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>0.9519448846786815</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.349555326325472</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0258485412694931</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007695521272554906</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.444416592122707</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.230539811685432</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9014655420118913</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.090257015985827</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3.438325413152938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.84515222162139</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7974552684614764</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2930352596300168</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02461431988964913</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007861149597823616</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.21542247580085</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2003376969197035</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7652413548419048</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.037980436636758</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.014214497085703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.93847021281357</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.6387534436194926</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2350678697292921</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02338145457419261</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008042212124990122</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9807255859834498</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1696225810159149</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6259078920618961</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.997076260982496</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.591027301517059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.9049731635555816</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1638927979412514</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1952012098508646</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06573756218256577</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.4138915290109537</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003614886702458131</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003129795845271399</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3553502812201046</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4014499883305866</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8284496061516506</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1705775429269067</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2048303978040735</v>
+      </c>
+      <c r="P2">
+        <v>0.930493954795832</v>
+      </c>
+      <c r="Q2">
+        <v>1.568600672345866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.7883923823772534</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1543785060546199</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1696813925864546</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.06234147606418716</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.3997592056987429</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.005015800117537494</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004344498370405958</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3526286186397485</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3987570546248449</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7233532500329289</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1531980070431445</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1794642938492004</v>
+      </c>
+      <c r="P3">
+        <v>0.9588732887574203</v>
+      </c>
+      <c r="Q3">
+        <v>1.532672402470169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.7164847571449684</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.1485462763910874</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1541074155377373</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.06022584368235862</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3914105711628437</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.006028527280438567</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.005269300487675821</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3511925252932144</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3972918187979815</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6587183261155047</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1425408539618473</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1638537640965403</v>
+      </c>
+      <c r="P4">
+        <v>0.9768615723768725</v>
+      </c>
+      <c r="Q4">
+        <v>1.511793528219016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.686483432525506</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1463210855234109</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1477814023352408</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.05931981046980184</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.387746234967274</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006481219033810298</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005768047016095679</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3504886935396527</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3964279169070331</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6323495199521005</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1382586974343027</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1574174621746138</v>
+      </c>
+      <c r="P5">
+        <v>0.9842491814336727</v>
+      </c>
+      <c r="Q5">
+        <v>1.502478869094801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6807438925783345</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1461374896229515</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.146731261199875</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0591248406458309</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.3867251851577649</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006562266398873723</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.005956611072592821</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3501597975545252</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.395904919689233</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6279701347424975</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1376191333122279</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1562681512034203</v>
+      </c>
+      <c r="P6">
+        <v>0.9853859168168642</v>
+      </c>
+      <c r="Q6">
+        <v>1.49961318413304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.7140175368352288</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1490259480111789</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.154019391425166</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.06009352920737854</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.3902215426649889</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.006043900171058658</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005541667259095107</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3505953289161141</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3962370558779256</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6583654418799085</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1426786672706157</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1635479401462838</v>
+      </c>
+      <c r="P7">
+        <v>0.9767040803613414</v>
+      </c>
+      <c r="Q7">
+        <v>1.508020779806444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.8620858879092452</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.1612953569722038</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1863764969595394</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.06441462007956922</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.4074436229191392</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00407504615003168</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00383015586587554</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3535895356573135</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3991089354238504</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7922335289014768</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1648434092897801</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1957986531123623</v>
+      </c>
+      <c r="P8">
+        <v>0.9398742062816403</v>
+      </c>
+      <c r="Q8">
+        <v>1.551152618106215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.153668459783432</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.18459377479914</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2507199345728708</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07287104188206328</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.4460290386852961</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001477358876885604</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001562122162904522</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3624403196975408</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.408148433285298</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.054111447545438</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2081133039330183</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.25918751649127</v>
+      </c>
+      <c r="P9">
+        <v>0.8726199207066685</v>
+      </c>
+      <c r="Q9">
+        <v>1.652116014257786</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.358652849206095</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.2039505075231745</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2986964561450236</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.07606013691078317</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.4702616512776103</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000676526695109203</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001050251698015536</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3671632607500612</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4109010790756891</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.246391690812885</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2287046627344296</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2992039071638359</v>
+      </c>
+      <c r="P10">
+        <v>0.8257404454810109</v>
+      </c>
+      <c r="Q10">
+        <v>1.713803702128388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.388767479227596</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2307478751280883</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3204956174473352</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.05790711921340375</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4330641269400388</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01929557370787904</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001498916827531005</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3449206275389542</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3737902916371922</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.333603482629911</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1504409621722544</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2636606413955462</v>
+      </c>
+      <c r="P11">
+        <v>0.8061001724504031</v>
+      </c>
+      <c r="Q11">
+        <v>1.588548033903805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1.373507419060616</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2507242292548142</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3286952849618103</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.04907007839193112</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.3990226247060065</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05807174934331982</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001488274137524392</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3262536099553017</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3448624483319236</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.366675190589888</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09547177925538364</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2277282165258612</v>
+      </c>
+      <c r="P12">
+        <v>0.8046921896217007</v>
+      </c>
+      <c r="Q12">
+        <v>1.477358799584835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1.319268699800602</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2671647542581042</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3267557442253093</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04658076752940232</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.3635758628109755</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1139892509408043</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001486221338600657</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3082710893367775</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3188638765049063</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.359665265080992</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05560721439638527</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1893003860767202</v>
+      </c>
+      <c r="P13">
+        <v>0.8161173113363347</v>
+      </c>
+      <c r="Q13">
+        <v>1.364541034282837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.263284232968203</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.2774652536879501</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.320804831775277</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.04858880285349532</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.3381411266659526</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.163482777846184</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00158598187520731</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2959683106982922</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3020570883910239</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.336604971058733</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03681733234097884</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1617742299346361</v>
+      </c>
+      <c r="P14">
+        <v>0.8303641449341796</v>
+      </c>
+      <c r="Q14">
+        <v>1.2848085270426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.240724537555963</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.2792298152943573</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3171963280939281</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04951678849225694</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.3312354206385351</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1760605647621816</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001739298123600186</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2929212162620018</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.298148173696184</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.322422938643228</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03345263779856467</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1542641193122876</v>
+      </c>
+      <c r="P15">
+        <v>0.835974664439938</v>
+      </c>
+      <c r="Q15">
+        <v>1.263757229417436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.163608062515209</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.2672473117909249</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.29670151390755</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.04858361591134663</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.3274480779875262</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1636921930313946</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002061247079167217</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2941176346982672</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3016819010609595</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.24079218466261</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03380508875817156</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1458542938105829</v>
+      </c>
+      <c r="P16">
+        <v>0.8513540557965378</v>
+      </c>
+      <c r="Q16">
+        <v>1.258053846811805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.1340229843033</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.2525364288670175</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2842215617554018</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.04618368792475991</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.3379622457298197</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1261247753387948</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002292718448467568</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3015644177703507</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3131753960371277</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.190591164031446</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04250041721760311</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1536202058836977</v>
+      </c>
+      <c r="P17">
+        <v>0.8556541562461888</v>
+      </c>
+      <c r="Q17">
+        <v>1.295825679497611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.143476703891395</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.2341203555108535</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2771273099116769</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.04563941447309267</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.3632363694474137</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07331413996133307</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002123159604502156</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3158070753443667</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3342606369993497</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.161610651862475</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06714105374558343</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1775880835877501</v>
+      </c>
+      <c r="P18">
+        <v>0.8529713570519952</v>
+      </c>
+      <c r="Q18">
+        <v>1.379168395580933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.179831881662921</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.216985947374738</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2748252303866536</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.05162602947030948</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.3977074523789454</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02782575194448356</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002181764067064051</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3339291364170478</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3613425557051144</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.151777772834777</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1148146818626401</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2146112830878302</v>
+      </c>
+      <c r="P19">
+        <v>0.8487773160962675</v>
+      </c>
+      <c r="Q19">
+        <v>1.490177932542224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.298036618148814</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.2006325641832731</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.286027632119783</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.07474779758682715</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.4600180074093743</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0008227197930157359</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00192138498848049</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3639262417492972</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4067512489372689</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.195890664908603</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2234222198466682</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2877478325250991</v>
+      </c>
+      <c r="P20">
+        <v>0.8374316203394896</v>
+      </c>
+      <c r="Q20">
+        <v>1.685199399515085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1.466766920415552</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.2125644373751072</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3231663949890873</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.08162968081450295</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.4885688994290831</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0001567390678822722</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001683838171390839</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3726807756796831</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4167409008157605</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.343550078997396</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2569197515373816</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3283729934215387</v>
+      </c>
+      <c r="P21">
+        <v>0.8032612263629231</v>
+      </c>
+      <c r="Q21">
+        <v>1.764376261440759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1.576159560143878</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.220629045374551</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3476268927016264</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.08481831909763571</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.5063302102949336</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.674077330493517E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001433318765176494</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3779982188957263</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.422562142351989</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.44012895265206</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2727504409910324</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3519954337524496</v>
+      </c>
+      <c r="P22">
+        <v>0.7814532483757981</v>
+      </c>
+      <c r="Q22">
+        <v>1.813365011977737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.520310639680673</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.2156666422562949</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3345584313337469</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.08325681318302536</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.4981381674201515</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.253135625551188E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001240757648084845</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3758102598458919</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4206335462944857</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.388578017035513</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2640548404862955</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3396548528802015</v>
+      </c>
+      <c r="P23">
+        <v>0.7931545939101117</v>
+      </c>
+      <c r="Q23">
+        <v>1.791310053423643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.304477460087213</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1980599316834315</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.2854506453445254</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.07709422825128165</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.4659476561655822</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0006631168791060293</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001415506504393704</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3670267975698067</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4119239792943219</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.19351639356816</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2316071333267473</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2925007260057413</v>
+      </c>
+      <c r="P24">
+        <v>0.8385380676799432</v>
+      </c>
+      <c r="Q24">
+        <v>1.704258683646117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.071235841823551</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1792227951703822</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2331926969234246</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.0703918641815342</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.4332194870351458</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002042722472170744</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002454087724427012</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3587811550581108</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.403668264158604</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9833021560387749</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1967461661311489</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2416569244433155</v>
+      </c>
+      <c r="P25">
+        <v>0.8900029937871228</v>
+      </c>
+      <c r="Q25">
+        <v>1.617133439154884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_13/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9049731635555816</v>
+        <v>0.8660835642022846</v>
       </c>
       <c r="C2">
-        <v>0.1638927979412514</v>
+        <v>0.1577298340812163</v>
       </c>
       <c r="D2">
-        <v>0.1952012098508646</v>
+        <v>0.1954418579562969</v>
       </c>
       <c r="E2">
-        <v>0.06573756218256577</v>
+        <v>0.06256764813158533</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4138915290109537</v>
+        <v>0.3671268916277057</v>
       </c>
       <c r="H2">
-        <v>0.003614886702458131</v>
+        <v>0.002968461765093022</v>
       </c>
       <c r="I2">
-        <v>0.003129795845271399</v>
+        <v>0.00234186483993426</v>
       </c>
       <c r="J2">
-        <v>0.3553502812201046</v>
+        <v>0.3657194166005837</v>
       </c>
       <c r="K2">
-        <v>0.4014499883305866</v>
+        <v>0.3656791209383847</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1747875373872319</v>
       </c>
       <c r="M2">
-        <v>0.8284496061516506</v>
+        <v>0.1048075933456882</v>
       </c>
       <c r="N2">
-        <v>0.1705775429269067</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2048303978040735</v>
+        <v>0.8309623676115905</v>
       </c>
       <c r="P2">
-        <v>0.930493954795832</v>
+        <v>0.179170701649312</v>
       </c>
       <c r="Q2">
-        <v>1.568600672345866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2004845909568154</v>
+      </c>
+      <c r="R2">
+        <v>0.9034034315521478</v>
+      </c>
+      <c r="S2">
+        <v>1.465899333496139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7883923823772534</v>
+        <v>0.7575193940315614</v>
       </c>
       <c r="C3">
-        <v>0.1543785060546199</v>
+        <v>0.1454992595306948</v>
       </c>
       <c r="D3">
-        <v>0.1696813925864546</v>
+        <v>0.1699233015145438</v>
       </c>
       <c r="E3">
-        <v>0.06234147606418716</v>
+        <v>0.05966374295280374</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3997592056987429</v>
+        <v>0.3571646999762379</v>
       </c>
       <c r="H3">
-        <v>0.005015800117537494</v>
+        <v>0.004157718161149071</v>
       </c>
       <c r="I3">
-        <v>0.004344498370405958</v>
+        <v>0.003231698753280554</v>
       </c>
       <c r="J3">
-        <v>0.3526286186397485</v>
+        <v>0.3618477098007205</v>
       </c>
       <c r="K3">
-        <v>0.3987570546248449</v>
+        <v>0.3652632491978736</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1787445810390444</v>
       </c>
       <c r="M3">
-        <v>0.7233532500329289</v>
+        <v>0.1020558570233803</v>
       </c>
       <c r="N3">
-        <v>0.1531980070431445</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1794642938492004</v>
+        <v>0.7260086167973725</v>
       </c>
       <c r="P3">
-        <v>0.9588732887574203</v>
+        <v>0.1612462742106615</v>
       </c>
       <c r="Q3">
-        <v>1.532672402470169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.175948608997917</v>
+      </c>
+      <c r="R3">
+        <v>0.9294690707180475</v>
+      </c>
+      <c r="S3">
+        <v>1.439192106048282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7164847571449684</v>
+        <v>0.6903794880239502</v>
       </c>
       <c r="C4">
-        <v>0.1485462763910874</v>
+        <v>0.1380668039979014</v>
       </c>
       <c r="D4">
-        <v>0.1541074155377373</v>
+        <v>0.1543451309376138</v>
       </c>
       <c r="E4">
-        <v>0.06022584368235862</v>
+        <v>0.05784754646432866</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3914105711628437</v>
+        <v>0.3513790987028926</v>
       </c>
       <c r="H4">
-        <v>0.006028527280438567</v>
+        <v>0.005020668098448589</v>
       </c>
       <c r="I4">
-        <v>0.005269300487675821</v>
+        <v>0.003931365860638358</v>
       </c>
       <c r="J4">
-        <v>0.3511925252932144</v>
+        <v>0.3595415216213027</v>
       </c>
       <c r="K4">
-        <v>0.3972918187979815</v>
+        <v>0.3651230459703676</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1812317463824833</v>
       </c>
       <c r="M4">
-        <v>0.6587183261155047</v>
+        <v>0.100900955100709</v>
       </c>
       <c r="N4">
-        <v>0.1425408539618473</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1638537640965403</v>
+        <v>0.6614351602705426</v>
       </c>
       <c r="P4">
-        <v>0.9768615723768725</v>
+        <v>0.1502712233411927</v>
       </c>
       <c r="Q4">
-        <v>1.511793528219016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1608297506013443</v>
+      </c>
+      <c r="R4">
+        <v>0.946052072655565</v>
+      </c>
+      <c r="S4">
+        <v>1.42367882850165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.686483432525506</v>
+        <v>0.6622923914414969</v>
       </c>
       <c r="C5">
-        <v>0.1463210855234109</v>
+        <v>0.1352325464051631</v>
       </c>
       <c r="D5">
-        <v>0.1477814023352408</v>
+        <v>0.1480163365600049</v>
       </c>
       <c r="E5">
-        <v>0.05931981046980184</v>
+        <v>0.05706413662598386</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.387746234967274</v>
+        <v>0.3487749834792169</v>
       </c>
       <c r="H5">
-        <v>0.006481219033810298</v>
+        <v>0.005407210965111764</v>
       </c>
       <c r="I5">
-        <v>0.005768047016095679</v>
+        <v>0.004344290307915166</v>
       </c>
       <c r="J5">
-        <v>0.3504886935396527</v>
+        <v>0.358440249043575</v>
       </c>
       <c r="K5">
-        <v>0.3964279169070331</v>
+        <v>0.3647980957562531</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1821106765340801</v>
       </c>
       <c r="M5">
-        <v>0.6323495199521005</v>
+        <v>0.1004904221845191</v>
       </c>
       <c r="N5">
-        <v>0.1382586974343027</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1574174621746138</v>
+        <v>0.6350859677653773</v>
       </c>
       <c r="P5">
-        <v>0.9842491814336727</v>
+        <v>0.1458647502699151</v>
       </c>
       <c r="Q5">
-        <v>1.502478869094801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1545897655389759</v>
+      </c>
+      <c r="R5">
+        <v>0.9528988371588074</v>
+      </c>
+      <c r="S5">
+        <v>1.416511359571331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6807438925783345</v>
+        <v>0.6568799686538398</v>
       </c>
       <c r="C6">
-        <v>0.1461374896229515</v>
+        <v>0.1349813399893236</v>
       </c>
       <c r="D6">
-        <v>0.146731261199875</v>
+        <v>0.1469656996309965</v>
       </c>
       <c r="E6">
-        <v>0.0591248406458309</v>
+        <v>0.05689103613331881</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3867251851577649</v>
+        <v>0.3479491256600795</v>
       </c>
       <c r="H6">
-        <v>0.006562266398873723</v>
+        <v>0.005476601330591635</v>
       </c>
       <c r="I6">
-        <v>0.005956611072592821</v>
+        <v>0.004534577957831409</v>
       </c>
       <c r="J6">
-        <v>0.3501597975545252</v>
+        <v>0.3580397876186723</v>
       </c>
       <c r="K6">
-        <v>0.395904919689233</v>
+        <v>0.364384571193014</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1820760646291433</v>
       </c>
       <c r="M6">
-        <v>0.6279701347424975</v>
+        <v>0.100339407527148</v>
       </c>
       <c r="N6">
-        <v>0.1376191333122279</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1562681512034203</v>
+        <v>0.6307099744032172</v>
       </c>
       <c r="P6">
-        <v>0.9853859168168642</v>
+        <v>0.1452059889715969</v>
       </c>
       <c r="Q6">
-        <v>1.49961318413304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1534731970132626</v>
+      </c>
+      <c r="R6">
+        <v>0.9539804614090794</v>
+      </c>
+      <c r="S6">
+        <v>1.4140391860454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7140175368352288</v>
+        <v>0.6875961001391317</v>
       </c>
       <c r="C7">
-        <v>0.1490259480111789</v>
+        <v>0.1384570156878766</v>
       </c>
       <c r="D7">
-        <v>0.154019391425166</v>
+        <v>0.1542551710115987</v>
       </c>
       <c r="E7">
-        <v>0.06009352920737854</v>
+        <v>0.0577409312600583</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3902215426649889</v>
+        <v>0.3527829495152162</v>
       </c>
       <c r="H7">
-        <v>0.006043900171058658</v>
+        <v>0.005038133679752921</v>
       </c>
       <c r="I7">
-        <v>0.005541667259095107</v>
+        <v>0.004249169503627748</v>
       </c>
       <c r="J7">
-        <v>0.3505953289161141</v>
+        <v>0.3551533082155274</v>
       </c>
       <c r="K7">
-        <v>0.3962370558779256</v>
+        <v>0.3637675131243157</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1805816502080866</v>
       </c>
       <c r="M7">
-        <v>0.6583654418799085</v>
+        <v>0.1005379036275205</v>
       </c>
       <c r="N7">
-        <v>0.1426786672706157</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1635479401462838</v>
+        <v>0.6604077099714374</v>
       </c>
       <c r="P7">
-        <v>0.9767040803613414</v>
+        <v>0.150379080670028</v>
       </c>
       <c r="Q7">
-        <v>1.508020779806444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1604588927025752</v>
+      </c>
+      <c r="R7">
+        <v>0.9459288245267139</v>
+      </c>
+      <c r="S7">
+        <v>1.417824987209272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8620858879092452</v>
+        <v>0.8247870438207485</v>
       </c>
       <c r="C8">
-        <v>0.1612953569722038</v>
+        <v>0.1537318383366753</v>
       </c>
       <c r="D8">
-        <v>0.1863764969595394</v>
+        <v>0.1866113398227043</v>
       </c>
       <c r="E8">
-        <v>0.06441462007956922</v>
+        <v>0.06148912224878167</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4074436229191392</v>
+        <v>0.3706509268361984</v>
       </c>
       <c r="H8">
-        <v>0.00407504615003168</v>
+        <v>0.003368788792700139</v>
       </c>
       <c r="I8">
-        <v>0.00383015586587554</v>
+        <v>0.002999429017556565</v>
       </c>
       <c r="J8">
-        <v>0.3535895356573135</v>
+        <v>0.3512995034949711</v>
       </c>
       <c r="K8">
-        <v>0.3991089354238504</v>
+        <v>0.3630253775783991</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1750235444408297</v>
       </c>
       <c r="M8">
-        <v>0.7922335289014768</v>
+        <v>0.1029887597530834</v>
       </c>
       <c r="N8">
-        <v>0.1648434092897801</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1957986531123623</v>
+        <v>0.7925347141050167</v>
       </c>
       <c r="P8">
-        <v>0.9398742062816403</v>
+        <v>0.173146370200584</v>
       </c>
       <c r="Q8">
-        <v>1.551152618106215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1915140255589023</v>
+      </c>
+      <c r="R8">
+        <v>0.912025878018115</v>
+      </c>
+      <c r="S8">
+        <v>1.44451864864152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.153668459783432</v>
+        <v>1.095057876216259</v>
       </c>
       <c r="C9">
-        <v>0.18459377479914</v>
+        <v>0.1839161730717365</v>
       </c>
       <c r="D9">
-        <v>0.2507199345728708</v>
+        <v>0.2509124611455178</v>
       </c>
       <c r="E9">
-        <v>0.07287104188206328</v>
+        <v>0.06871695715394388</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4460290386852961</v>
+        <v>0.4011581758649498</v>
       </c>
       <c r="H9">
-        <v>0.001477358876885604</v>
+        <v>0.001178678490523555</v>
       </c>
       <c r="I9">
-        <v>0.001562122162904522</v>
+        <v>0.001335142314192517</v>
       </c>
       <c r="J9">
-        <v>0.3624403196975408</v>
+        <v>0.3587225921917963</v>
       </c>
       <c r="K9">
-        <v>0.408148433285298</v>
+        <v>0.3655923087889938</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1660026905396634</v>
       </c>
       <c r="M9">
-        <v>1.054111447545438</v>
+        <v>0.1129468150354924</v>
       </c>
       <c r="N9">
-        <v>0.2081133039330183</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.25918751649127</v>
+        <v>1.05320572396522</v>
       </c>
       <c r="P9">
-        <v>0.8726199207066685</v>
+        <v>0.217834063564041</v>
       </c>
       <c r="Q9">
-        <v>1.652116014257786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2526543343918988</v>
+      </c>
+      <c r="R9">
+        <v>0.8506303253491705</v>
+      </c>
+      <c r="S9">
+        <v>1.518644544311002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.358652849206095</v>
+        <v>1.282316591165937</v>
       </c>
       <c r="C10">
-        <v>0.2039505075231745</v>
+        <v>0.2078044891996029</v>
       </c>
       <c r="D10">
-        <v>0.2986964561450236</v>
+        <v>0.2988027458046218</v>
       </c>
       <c r="E10">
-        <v>0.07606013691078317</v>
+        <v>0.07131680069959678</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4702616512776103</v>
+        <v>0.4354461513422194</v>
       </c>
       <c r="H10">
-        <v>0.000676526695109203</v>
+        <v>0.0005595400478854984</v>
       </c>
       <c r="I10">
-        <v>0.001050251698015536</v>
+        <v>0.001138054360732887</v>
       </c>
       <c r="J10">
-        <v>0.3671632607500612</v>
+        <v>0.341783697506898</v>
       </c>
       <c r="K10">
-        <v>0.4109010790756891</v>
+        <v>0.3620096483070903</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1574977888464097</v>
       </c>
       <c r="M10">
-        <v>1.246391690812885</v>
+        <v>0.1204287572566507</v>
       </c>
       <c r="N10">
-        <v>0.2287046627344296</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2992039071638359</v>
+        <v>1.240310177506444</v>
       </c>
       <c r="P10">
-        <v>0.8257404454810109</v>
+        <v>0.2390558509175378</v>
       </c>
       <c r="Q10">
-        <v>1.713803702128388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2906727064868306</v>
+      </c>
+      <c r="R10">
+        <v>0.8091453207384305</v>
+      </c>
+      <c r="S10">
+        <v>1.548763827752936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.388767479227596</v>
+        <v>1.309232315352659</v>
       </c>
       <c r="C11">
-        <v>0.2307478751280883</v>
+        <v>0.2355662256707234</v>
       </c>
       <c r="D11">
-        <v>0.3204956174473352</v>
+        <v>0.3205440621978397</v>
       </c>
       <c r="E11">
-        <v>0.05790711921340375</v>
+        <v>0.05463154496191436</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4330641269400388</v>
+        <v>0.4337351222978896</v>
       </c>
       <c r="H11">
-        <v>0.01929557370787904</v>
+        <v>0.01919431063427979</v>
       </c>
       <c r="I11">
-        <v>0.001498916827531005</v>
+        <v>0.001748378317637744</v>
       </c>
       <c r="J11">
-        <v>0.3449206275389542</v>
+        <v>0.2869567623345546</v>
       </c>
       <c r="K11">
-        <v>0.3737902916371922</v>
+        <v>0.325914751310254</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1420113047610236</v>
       </c>
       <c r="M11">
-        <v>1.333603482629911</v>
+        <v>0.1099180605447856</v>
       </c>
       <c r="N11">
-        <v>0.1504409621722544</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2636606413955462</v>
+        <v>1.317935483096022</v>
       </c>
       <c r="P11">
-        <v>0.8061001724504031</v>
+        <v>0.1583063733288768</v>
       </c>
       <c r="Q11">
-        <v>1.588548033903805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2550522955119838</v>
+      </c>
+      <c r="R11">
+        <v>0.8002526884558954</v>
+      </c>
+      <c r="S11">
+        <v>1.410005842772591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.373507419060616</v>
+        <v>1.296504822035587</v>
       </c>
       <c r="C12">
-        <v>0.2507242292548142</v>
+        <v>0.2552515567178091</v>
       </c>
       <c r="D12">
-        <v>0.3286952849618103</v>
+        <v>0.328726645782595</v>
       </c>
       <c r="E12">
-        <v>0.04907007839193112</v>
+        <v>0.04681766099419638</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3990226247060065</v>
+        <v>0.4165418702100112</v>
       </c>
       <c r="H12">
-        <v>0.05807174934331982</v>
+        <v>0.0579666214807375</v>
       </c>
       <c r="I12">
-        <v>0.001488274137524392</v>
+        <v>0.00174462964847244</v>
       </c>
       <c r="J12">
-        <v>0.3262536099553017</v>
+        <v>0.2604214473747106</v>
       </c>
       <c r="K12">
-        <v>0.3448624483319236</v>
+        <v>0.3004250393443968</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1325436456243789</v>
       </c>
       <c r="M12">
-        <v>1.366675190589888</v>
+        <v>0.1006878728039808</v>
       </c>
       <c r="N12">
-        <v>0.09547177925538364</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2277282165258612</v>
+        <v>1.346454369759101</v>
       </c>
       <c r="P12">
-        <v>0.8046921896217007</v>
+        <v>0.101419605604022</v>
       </c>
       <c r="Q12">
-        <v>1.477358799584835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2197562787640344</v>
+      </c>
+      <c r="R12">
+        <v>0.8066167046943349</v>
+      </c>
+      <c r="S12">
+        <v>1.302639608376595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.319268699800602</v>
+        <v>1.250388995565544</v>
       </c>
       <c r="C13">
-        <v>0.2671647542581042</v>
+        <v>0.271378147752344</v>
       </c>
       <c r="D13">
-        <v>0.3267557442253093</v>
+        <v>0.3268117870803877</v>
       </c>
       <c r="E13">
-        <v>0.04658076752940232</v>
+        <v>0.04517507087603567</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3635758628109755</v>
+        <v>0.3786277308232258</v>
       </c>
       <c r="H13">
-        <v>0.1139892509408043</v>
+        <v>0.1138576915815293</v>
       </c>
       <c r="I13">
-        <v>0.001486221338600657</v>
+        <v>0.001709949460456883</v>
       </c>
       <c r="J13">
-        <v>0.3082710893367775</v>
+        <v>0.252979361667407</v>
       </c>
       <c r="K13">
-        <v>0.3188638765049063</v>
+        <v>0.2803083131207131</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1261214602160976</v>
       </c>
       <c r="M13">
-        <v>1.359665265080992</v>
+        <v>0.09180261031806225</v>
       </c>
       <c r="N13">
-        <v>0.05560721439638527</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1893003860767202</v>
+        <v>1.340535343787423</v>
       </c>
       <c r="P13">
-        <v>0.8161173113363347</v>
+        <v>0.05998323520747917</v>
       </c>
       <c r="Q13">
-        <v>1.364541034282837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1826068753195145</v>
+      </c>
+      <c r="R13">
+        <v>0.8224092011654633</v>
+      </c>
+      <c r="S13">
+        <v>1.210671413617817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.263284232968203</v>
+        <v>1.202474603405392</v>
       </c>
       <c r="C14">
-        <v>0.2774652536879501</v>
+        <v>0.2815127579549142</v>
       </c>
       <c r="D14">
-        <v>0.320804831775277</v>
+        <v>0.3208956780939047</v>
       </c>
       <c r="E14">
-        <v>0.04858880285349532</v>
+        <v>0.0477377385226232</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3381411266659526</v>
+        <v>0.3441407944714356</v>
       </c>
       <c r="H14">
-        <v>0.163482777846184</v>
+        <v>0.1633196285168736</v>
       </c>
       <c r="I14">
-        <v>0.00158598187520731</v>
+        <v>0.00178029191721496</v>
       </c>
       <c r="J14">
-        <v>0.2959683106982922</v>
+        <v>0.2546100717966056</v>
       </c>
       <c r="K14">
-        <v>0.3020570883910239</v>
+        <v>0.2683862377777153</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1227321069633351</v>
       </c>
       <c r="M14">
-        <v>1.336604971058733</v>
+        <v>0.08581461672782709</v>
       </c>
       <c r="N14">
-        <v>0.03681733234097884</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1617742299346361</v>
+        <v>1.320722306756892</v>
       </c>
       <c r="P14">
-        <v>0.8303641449341796</v>
+        <v>0.04025792786872628</v>
       </c>
       <c r="Q14">
-        <v>1.2848085270426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1561872976868308</v>
+      </c>
+      <c r="R14">
+        <v>0.8375674621144427</v>
+      </c>
+      <c r="S14">
+        <v>1.151852629577164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.240724537555963</v>
+        <v>1.182948355189609</v>
       </c>
       <c r="C15">
-        <v>0.2792298152943573</v>
+        <v>0.2833316492923217</v>
       </c>
       <c r="D15">
-        <v>0.3171963280939281</v>
+        <v>0.3173035867909277</v>
       </c>
       <c r="E15">
-        <v>0.04951678849225694</v>
+        <v>0.04881720541863377</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3312354206385351</v>
+        <v>0.3321148002866394</v>
       </c>
       <c r="H15">
-        <v>0.1760605647621816</v>
+        <v>0.1758813252205869</v>
       </c>
       <c r="I15">
-        <v>0.001739298123600186</v>
+        <v>0.001937445290138839</v>
       </c>
       <c r="J15">
-        <v>0.2929212162620018</v>
+        <v>0.2579109043329026</v>
       </c>
       <c r="K15">
-        <v>0.298148173696184</v>
+        <v>0.2660512705616931</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1222536870353377</v>
       </c>
       <c r="M15">
-        <v>1.322422938643228</v>
+        <v>0.08430614985255502</v>
       </c>
       <c r="N15">
-        <v>0.03345263779856467</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1542641193122876</v>
+        <v>1.308392662592382</v>
       </c>
       <c r="P15">
-        <v>0.835974664439938</v>
+        <v>0.03670443554379688</v>
       </c>
       <c r="Q15">
-        <v>1.263757229417436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1490480618729428</v>
+      </c>
+      <c r="R15">
+        <v>0.8425728938220161</v>
+      </c>
+      <c r="S15">
+        <v>1.138705261593671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.163608062515209</v>
+        <v>1.115049714697051</v>
       </c>
       <c r="C16">
-        <v>0.2672473117909249</v>
+        <v>0.2717147821257981</v>
       </c>
       <c r="D16">
-        <v>0.29670151390755</v>
+        <v>0.296876343665474</v>
       </c>
       <c r="E16">
-        <v>0.04858361591134663</v>
+        <v>0.04803708517084448</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3274480779875262</v>
+        <v>0.3046405411315192</v>
       </c>
       <c r="H16">
-        <v>0.1636921930313946</v>
+        <v>0.1634229606770106</v>
       </c>
       <c r="I16">
-        <v>0.002061247079167217</v>
+        <v>0.00216874611815765</v>
       </c>
       <c r="J16">
-        <v>0.2941176346982672</v>
+        <v>0.2860112271258046</v>
       </c>
       <c r="K16">
-        <v>0.3016819010609595</v>
+        <v>0.2728807612733206</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1262114025042909</v>
       </c>
       <c r="M16">
-        <v>1.24079218466261</v>
+        <v>0.0843484742921401</v>
       </c>
       <c r="N16">
-        <v>0.03380508875817156</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1458542938105829</v>
+        <v>1.235459675187172</v>
       </c>
       <c r="P16">
-        <v>0.8513540557965378</v>
+        <v>0.03730969616148805</v>
       </c>
       <c r="Q16">
-        <v>1.258053846811805</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1415807882319058</v>
+      </c>
+      <c r="R16">
+        <v>0.8511981361456478</v>
+      </c>
+      <c r="S16">
+        <v>1.156929528039399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.1340229843033</v>
+        <v>1.087698332361214</v>
       </c>
       <c r="C17">
-        <v>0.2525364288670175</v>
+        <v>0.2568910976171708</v>
       </c>
       <c r="D17">
-        <v>0.2842215617554018</v>
+        <v>0.2844227438248623</v>
       </c>
       <c r="E17">
-        <v>0.04618368792475991</v>
+        <v>0.0453843178627551</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3379622457298197</v>
+        <v>0.3044692378693199</v>
       </c>
       <c r="H17">
-        <v>0.1261247753387948</v>
+        <v>0.1258017273164</v>
       </c>
       <c r="I17">
-        <v>0.002292718448467568</v>
+        <v>0.002346164078914192</v>
       </c>
       <c r="J17">
-        <v>0.3015644177703507</v>
+        <v>0.3052898391138328</v>
       </c>
       <c r="K17">
-        <v>0.3131753960371277</v>
+        <v>0.2842633798676992</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1312988954724563</v>
       </c>
       <c r="M17">
-        <v>1.190591164031446</v>
+        <v>0.08726727250106592</v>
       </c>
       <c r="N17">
-        <v>0.04250041721760311</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1536202058836977</v>
+        <v>1.188966555694407</v>
       </c>
       <c r="P17">
-        <v>0.8556541562461888</v>
+        <v>0.04667841456407373</v>
       </c>
       <c r="Q17">
-        <v>1.295825679497611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1494707138350932</v>
+      </c>
+      <c r="R17">
+        <v>0.8511147194625295</v>
+      </c>
+      <c r="S17">
+        <v>1.200354808362647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.143476703891395</v>
+        <v>1.094553223352847</v>
       </c>
       <c r="C18">
-        <v>0.2341203555108535</v>
+        <v>0.2382143386118969</v>
       </c>
       <c r="D18">
-        <v>0.2771273099116769</v>
+        <v>0.277332811621946</v>
       </c>
       <c r="E18">
-        <v>0.04563941447309267</v>
+        <v>0.0441561467490611</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3632363694474137</v>
+        <v>0.3228353664174364</v>
       </c>
       <c r="H18">
-        <v>0.07331413996133307</v>
+        <v>0.07297969925570413</v>
       </c>
       <c r="I18">
-        <v>0.002123159604502156</v>
+        <v>0.002111057370313141</v>
       </c>
       <c r="J18">
-        <v>0.3158070753443667</v>
+        <v>0.3236354355945537</v>
       </c>
       <c r="K18">
-        <v>0.3342606369993497</v>
+        <v>0.3027306343437388</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1387061867939092</v>
       </c>
       <c r="M18">
-        <v>1.161610651862475</v>
+        <v>0.09350506359608879</v>
       </c>
       <c r="N18">
-        <v>0.06714105374558343</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1775880835877501</v>
+        <v>1.161529466632601</v>
       </c>
       <c r="P18">
-        <v>0.8529713570519952</v>
+        <v>0.07254400803637395</v>
       </c>
       <c r="Q18">
-        <v>1.379168395580933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1729818713996494</v>
+      </c>
+      <c r="R18">
+        <v>0.8445323849609778</v>
+      </c>
+      <c r="S18">
+        <v>1.27820951668599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.179831881662921</v>
+        <v>1.125004249516962</v>
       </c>
       <c r="C19">
-        <v>0.216985947374738</v>
+        <v>0.2208528131662462</v>
       </c>
       <c r="D19">
-        <v>0.2748252303866536</v>
+        <v>0.275020504270671</v>
       </c>
       <c r="E19">
-        <v>0.05162602947030948</v>
+        <v>0.04906970741180405</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3977074523789454</v>
+        <v>0.3518185509989351</v>
       </c>
       <c r="H19">
-        <v>0.02782575194448356</v>
+        <v>0.02752657814704662</v>
       </c>
       <c r="I19">
-        <v>0.002181764067064051</v>
+        <v>0.002215396258797853</v>
       </c>
       <c r="J19">
-        <v>0.3339291364170478</v>
+        <v>0.3413644026206413</v>
       </c>
       <c r="K19">
-        <v>0.3613425557051144</v>
+        <v>0.3254600684975735</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1473724185677465</v>
       </c>
       <c r="M19">
-        <v>1.151777772834777</v>
+        <v>0.1019043900638721</v>
       </c>
       <c r="N19">
-        <v>0.1148146818626401</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2146112830878302</v>
+        <v>1.152083106498822</v>
       </c>
       <c r="P19">
-        <v>0.8487773160962675</v>
+        <v>0.1219662294284163</v>
       </c>
       <c r="Q19">
-        <v>1.490177932542224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.209105972935987</v>
+      </c>
+      <c r="R19">
+        <v>0.8364526800001819</v>
+      </c>
+      <c r="S19">
+        <v>1.376472343217259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.298036618148814</v>
+        <v>1.228023441604677</v>
       </c>
       <c r="C20">
-        <v>0.2006325641832731</v>
+        <v>0.2043246474013927</v>
       </c>
       <c r="D20">
-        <v>0.286027632119783</v>
+        <v>0.2861716671196177</v>
       </c>
       <c r="E20">
-        <v>0.07474779758682715</v>
+        <v>0.07011222176508092</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4600180074093743</v>
+        <v>0.4133215126006888</v>
       </c>
       <c r="H20">
-        <v>0.0008227197930157359</v>
+        <v>0.0006611446338049554</v>
       </c>
       <c r="I20">
-        <v>0.00192138498848049</v>
+        <v>0.002092727442906117</v>
       </c>
       <c r="J20">
-        <v>0.3639262417492972</v>
+        <v>0.35677948056356</v>
       </c>
       <c r="K20">
-        <v>0.4067512489372689</v>
+        <v>0.3611218987761688</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1590239033979515</v>
       </c>
       <c r="M20">
-        <v>1.195890664908603</v>
+        <v>0.1176296133052297</v>
       </c>
       <c r="N20">
-        <v>0.2234222198466682</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2877478325250991</v>
+        <v>1.193718006441941</v>
       </c>
       <c r="P20">
-        <v>0.8374316203394896</v>
+        <v>0.2337153016735414</v>
       </c>
       <c r="Q20">
-        <v>1.685199399515085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2800167156208815</v>
+      </c>
+      <c r="R20">
+        <v>0.8197903232325707</v>
+      </c>
+      <c r="S20">
+        <v>1.537115863056925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.466766920415552</v>
+        <v>1.373856353576571</v>
       </c>
       <c r="C21">
-        <v>0.2125644373751072</v>
+        <v>0.21608507420423</v>
       </c>
       <c r="D21">
-        <v>0.3231663949890873</v>
+        <v>0.3231636197004804</v>
       </c>
       <c r="E21">
-        <v>0.08162968081450295</v>
+        <v>0.07665798963899917</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4885688994290831</v>
+        <v>0.5010433892880002</v>
       </c>
       <c r="H21">
-        <v>0.0001567390678822722</v>
+        <v>0.0001137583088448579</v>
       </c>
       <c r="I21">
-        <v>0.001683838171390839</v>
+        <v>0.002018899265750385</v>
       </c>
       <c r="J21">
-        <v>0.3726807756796831</v>
+        <v>0.2904076990014346</v>
       </c>
       <c r="K21">
-        <v>0.4167409008157605</v>
+        <v>0.3582652051690438</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1527215419643895</v>
       </c>
       <c r="M21">
-        <v>1.343550078997396</v>
+        <v>0.1238307522491127</v>
       </c>
       <c r="N21">
-        <v>0.2569197515373816</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3283729934215387</v>
+        <v>1.32390094853821</v>
       </c>
       <c r="P21">
-        <v>0.8032612263629231</v>
+        <v>0.2676082941216578</v>
       </c>
       <c r="Q21">
-        <v>1.764376261440759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3174391274894361</v>
+      </c>
+      <c r="R21">
+        <v>0.7894125582016649</v>
+      </c>
+      <c r="S21">
+        <v>1.546372858537666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.576159560143878</v>
+        <v>1.46776935842999</v>
       </c>
       <c r="C22">
-        <v>0.220629045374551</v>
+        <v>0.2237708176043753</v>
       </c>
       <c r="D22">
-        <v>0.3476268927016264</v>
+        <v>0.3475107269978679</v>
       </c>
       <c r="E22">
-        <v>0.08481831909763571</v>
+        <v>0.07979082673582027</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5063302102949336</v>
+        <v>0.566428144285112</v>
       </c>
       <c r="H22">
-        <v>1.674077330493517E-05</v>
+        <v>9.691193471050852E-06</v>
       </c>
       <c r="I22">
-        <v>0.001433318765176494</v>
+        <v>0.001756557854494467</v>
       </c>
       <c r="J22">
-        <v>0.3779982188957263</v>
+        <v>0.2522838501823514</v>
       </c>
       <c r="K22">
-        <v>0.422562142351989</v>
+        <v>0.3553006377735777</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1483697765766543</v>
       </c>
       <c r="M22">
-        <v>1.44012895265206</v>
+        <v>0.1277247320115897</v>
       </c>
       <c r="N22">
-        <v>0.2727504409910324</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3519954337524496</v>
+        <v>1.407692946798903</v>
       </c>
       <c r="P22">
-        <v>0.7814532483757981</v>
+        <v>0.2834994311736665</v>
       </c>
       <c r="Q22">
-        <v>1.813365011977737</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3388847618278774</v>
+      </c>
+      <c r="R22">
+        <v>0.7706864321422486</v>
+      </c>
+      <c r="S22">
+        <v>1.546538856698902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.520310639680673</v>
+        <v>1.421177393974602</v>
       </c>
       <c r="C23">
-        <v>0.2156666422562949</v>
+        <v>0.219348901853067</v>
       </c>
       <c r="D23">
-        <v>0.3345584313337469</v>
+        <v>0.3345116789953266</v>
       </c>
       <c r="E23">
-        <v>0.08325681318302536</v>
+        <v>0.07818453603481856</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4981381674201515</v>
+        <v>0.5246116860678001</v>
       </c>
       <c r="H23">
-        <v>7.253135625551188E-05</v>
+        <v>4.939655155977718E-05</v>
       </c>
       <c r="I23">
-        <v>0.001240757648084845</v>
+        <v>0.001512974596468375</v>
       </c>
       <c r="J23">
-        <v>0.3758102598458919</v>
+        <v>0.2785469590851335</v>
       </c>
       <c r="K23">
-        <v>0.4206335462944857</v>
+        <v>0.3588463673131841</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1513310389176361</v>
       </c>
       <c r="M23">
-        <v>1.388578017035513</v>
+        <v>0.1264500018429331</v>
       </c>
       <c r="N23">
-        <v>0.2640548404862955</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3396548528802015</v>
+        <v>1.364866843514761</v>
       </c>
       <c r="P23">
-        <v>0.7931545939101117</v>
+        <v>0.2748455523173305</v>
       </c>
       <c r="Q23">
-        <v>1.791310053423643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3278992497824333</v>
+      </c>
+      <c r="R23">
+        <v>0.7803174828851152</v>
+      </c>
+      <c r="S23">
+        <v>1.556011303140281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.304477460087213</v>
+        <v>1.233867170543192</v>
       </c>
       <c r="C24">
-        <v>0.1980599316834315</v>
+        <v>0.2013990030076371</v>
       </c>
       <c r="D24">
-        <v>0.2854506453445254</v>
+        <v>0.2855938021666731</v>
       </c>
       <c r="E24">
-        <v>0.07709422825128165</v>
+        <v>0.0722962073715756</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4659476561655822</v>
+        <v>0.4182085872643455</v>
       </c>
       <c r="H24">
-        <v>0.0006631168791060293</v>
+        <v>0.0005069224953884177</v>
       </c>
       <c r="I24">
-        <v>0.001415506504393704</v>
+        <v>0.001489133944428289</v>
       </c>
       <c r="J24">
-        <v>0.3670267975698067</v>
+        <v>0.3602141895609989</v>
       </c>
       <c r="K24">
-        <v>0.4119239792943219</v>
+        <v>0.3656518782442646</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1607646566954841</v>
       </c>
       <c r="M24">
-        <v>1.19351639356816</v>
+        <v>0.1192854542861568</v>
       </c>
       <c r="N24">
-        <v>0.2316071333267473</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2925007260057413</v>
+        <v>1.191483368566452</v>
       </c>
       <c r="P24">
-        <v>0.8385380676799432</v>
+        <v>0.2421235892645655</v>
       </c>
       <c r="Q24">
-        <v>1.704258683646117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2846704380833813</v>
+      </c>
+      <c r="R24">
+        <v>0.819992842891935</v>
+      </c>
+      <c r="S24">
+        <v>1.554677086831134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.071235841823551</v>
+        <v>1.019169196501224</v>
       </c>
       <c r="C25">
-        <v>0.1792227951703822</v>
+        <v>0.1770855340325994</v>
       </c>
       <c r="D25">
-        <v>0.2331926969234246</v>
+        <v>0.2334068753971223</v>
       </c>
       <c r="E25">
-        <v>0.0703918641815342</v>
+        <v>0.06655360755314987</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4332194870351458</v>
+        <v>0.3869573892750822</v>
       </c>
       <c r="H25">
-        <v>0.002042722472170744</v>
+        <v>0.001649087835390528</v>
       </c>
       <c r="I25">
-        <v>0.002454087724427012</v>
+        <v>0.002168393029180038</v>
       </c>
       <c r="J25">
-        <v>0.3587811550581108</v>
+        <v>0.3608189918616134</v>
       </c>
       <c r="K25">
-        <v>0.403668264158604</v>
+        <v>0.3635899076062579</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.167912498261142</v>
       </c>
       <c r="M25">
-        <v>0.9833021560387749</v>
+        <v>0.1093704757727529</v>
       </c>
       <c r="N25">
-        <v>0.1967461661311489</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2416569244433155</v>
+        <v>0.9837435353418016</v>
       </c>
       <c r="P25">
-        <v>0.8900029937871228</v>
+        <v>0.2061223626780162</v>
       </c>
       <c r="Q25">
-        <v>1.617133439154884</v>
+        <v>0.2358537078719323</v>
+      </c>
+      <c r="R25">
+        <v>0.8666676055392184</v>
+      </c>
+      <c r="S25">
+        <v>1.494656940034758</v>
       </c>
     </row>
   </sheetData>
